--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.635101716280928</v>
+        <v>2.635101716280758</v>
       </c>
       <c r="C2">
-        <v>0.732868578860689</v>
+        <v>0.7328685788605753</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03684276529987152</v>
+        <v>0.03684276529986974</v>
       </c>
       <c r="F2">
-        <v>1.383507190218978</v>
+        <v>1.383507190218964</v>
       </c>
       <c r="G2">
-        <v>0.8597238626055841</v>
+        <v>0.8597238626055912</v>
       </c>
       <c r="H2">
-        <v>0.5328738622476621</v>
+        <v>0.5328738622476692</v>
       </c>
       <c r="I2">
-        <v>0.06828676724332849</v>
+        <v>0.06828676724336535</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1554747321492371</v>
+        <v>0.1554747321492194</v>
       </c>
       <c r="L2">
-        <v>0.6954530851515912</v>
+        <v>0.6954530851515983</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279790884553734</v>
+        <v>2.279790884553677</v>
       </c>
       <c r="C3">
-        <v>0.6340237739195516</v>
+        <v>0.6340237739192958</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0.504038272040475</v>
       </c>
       <c r="I3">
-        <v>0.07367154653078301</v>
+        <v>0.07367154653078289</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.1346517840085717</v>
+        <v>0.134651784008561</v>
       </c>
       <c r="L3">
-        <v>0.6014067728442924</v>
+        <v>0.6014067728442996</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.063522431426406</v>
+        <v>2.063522431426293</v>
       </c>
       <c r="C4">
-        <v>0.5739974969157231</v>
+        <v>0.5739974969154957</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -500,25 +500,25 @@
         <v>0.03057868263345753</v>
       </c>
       <c r="F4">
-        <v>1.105610679804954</v>
+        <v>1.10561067980494</v>
       </c>
       <c r="G4">
-        <v>0.7358512069280678</v>
+        <v>0.7358512069280536</v>
       </c>
       <c r="H4">
-        <v>0.4882719889284104</v>
+        <v>0.4882719889284033</v>
       </c>
       <c r="I4">
-        <v>0.07712207827338691</v>
+        <v>0.07712207827336703</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1220126917645175</v>
+        <v>0.1220126917644997</v>
       </c>
       <c r="L4">
-        <v>0.5442183334950101</v>
+        <v>0.5442183334950315</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975782265234045</v>
+        <v>1.97578226523396</v>
       </c>
       <c r="C5">
         <v>0.5496731865035542</v>
@@ -535,28 +535,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02962433022793931</v>
+        <v>0.02962433022790911</v>
       </c>
       <c r="F5">
-        <v>1.063749785808668</v>
+        <v>1.063749785808682</v>
       </c>
       <c r="G5">
-        <v>0.7179656015935336</v>
+        <v>0.7179656015935194</v>
       </c>
       <c r="H5">
         <v>0.482295273397213</v>
       </c>
       <c r="I5">
-        <v>0.07856306920656542</v>
+        <v>0.07856306920655853</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1168937640800607</v>
+        <v>0.1168937640801211</v>
       </c>
       <c r="L5">
-        <v>0.52103068248109</v>
+        <v>0.5210306824810829</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.961234332335209</v>
+        <v>1.961234332335181</v>
       </c>
       <c r="C6">
-        <v>0.545641583036371</v>
+        <v>0.5456415830362005</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02946632019655659</v>
+        <v>0.02946632019656548</v>
       </c>
       <c r="F6">
-        <v>1.056831569486604</v>
+        <v>1.05683156948659</v>
       </c>
       <c r="G6">
-        <v>0.7150317454279218</v>
+        <v>0.715031745427936</v>
       </c>
       <c r="H6">
-        <v>0.4813288182923188</v>
+        <v>0.481328818292333</v>
       </c>
       <c r="I6">
-        <v>0.07880441276061179</v>
+        <v>0.07880441276058325</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1160455347483946</v>
+        <v>0.1160455347484017</v>
       </c>
       <c r="L6">
-        <v>0.5171868308065939</v>
+        <v>0.517186830806601</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.062337661374158</v>
+        <v>2.062337661374045</v>
       </c>
       <c r="C7">
-        <v>0.5736689347206152</v>
+        <v>0.5736689347204731</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03056578063522153</v>
+        <v>0.03056578063522331</v>
       </c>
       <c r="F7">
         <v>1.105043891975953</v>
       </c>
       <c r="G7">
-        <v>0.7356075418347814</v>
+        <v>0.7356075418347956</v>
       </c>
       <c r="H7">
         <v>0.4881896200757083</v>
       </c>
       <c r="I7">
-        <v>0.07714137252672704</v>
+        <v>0.07714137252674524</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1219435347152533</v>
+        <v>0.1219435347152427</v>
       </c>
       <c r="L7">
-        <v>0.5439051714158509</v>
+        <v>0.543905171415858</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>2.512143836681503</v>
       </c>
       <c r="C8">
-        <v>0.6986298303857552</v>
+        <v>0.698629830385471</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03548945103062628</v>
+        <v>0.03548945103060142</v>
       </c>
       <c r="F8">
         <v>1.323019400299373</v>
@@ -661,13 +661,13 @@
         <v>0.5225042604324415</v>
       </c>
       <c r="I8">
-        <v>0.07011260367740657</v>
+        <v>0.07011260367740779</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1482613736776841</v>
+        <v>0.1482613736776734</v>
       </c>
       <c r="L8">
         <v>0.6628961136630664</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.413516984824525</v>
+        <v>3.413516984824412</v>
       </c>
       <c r="C9">
-        <v>0.9504741318328058</v>
+        <v>0.9504741318328342</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04545835580884017</v>
+        <v>0.04545835580881175</v>
       </c>
       <c r="F9">
         <v>1.774177020465444</v>
@@ -696,19 +696,19 @@
         <v>1.046118251666385</v>
       </c>
       <c r="H9">
-        <v>0.6071294511737833</v>
+        <v>0.6071294511737619</v>
       </c>
       <c r="I9">
-        <v>0.05754622925982011</v>
+        <v>0.05754622925981745</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2012884253054352</v>
+        <v>0.2012884253054494</v>
       </c>
       <c r="L9">
-        <v>0.9017914976078245</v>
+        <v>0.9017914976078103</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>4.094216207996112</v>
       </c>
       <c r="C10">
-        <v>1.142032697319706</v>
+        <v>1.142032697319735</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05303131852422993</v>
+        <v>0.05303131852425835</v>
       </c>
       <c r="F10">
-        <v>2.125340135496003</v>
+        <v>2.125340135495989</v>
       </c>
       <c r="G10">
-        <v>1.223443120149454</v>
+        <v>1.223443120149469</v>
       </c>
       <c r="H10">
         <v>0.6828899486716367</v>
       </c>
       <c r="I10">
-        <v>0.04917353683055437</v>
+        <v>0.04917353683054282</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2415092435805661</v>
+        <v>0.2415092435805803</v>
       </c>
       <c r="L10">
-        <v>1.082469277867965</v>
+        <v>1.082469277867972</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>4.409606326769847</v>
       </c>
       <c r="C11">
-        <v>1.231210401966564</v>
+        <v>1.231210401966507</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05654462912056246</v>
+        <v>0.05654462912055536</v>
       </c>
       <c r="F11">
-        <v>2.290691010635229</v>
+        <v>2.290691010635186</v>
       </c>
       <c r="G11">
-        <v>1.309718573691967</v>
+        <v>1.309718573691981</v>
       </c>
       <c r="H11">
-        <v>0.7210765808503083</v>
+        <v>0.7210765808503012</v>
       </c>
       <c r="I11">
-        <v>0.04558370867767492</v>
+        <v>0.04558370867766381</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0.2601809274058979</v>
       </c>
       <c r="L11">
-        <v>1.166236983537495</v>
+        <v>1.166236983537488</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>4.530024276336576</v>
       </c>
       <c r="C12">
-        <v>1.265331599783735</v>
+        <v>1.265331599783849</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05788614464339403</v>
+        <v>0.05788614464338693</v>
       </c>
       <c r="F12">
         <v>2.354235451249778</v>
@@ -813,16 +813,16 @@
         <v>0.736146095892444</v>
       </c>
       <c r="I12">
-        <v>0.04425914388787855</v>
+        <v>0.04425914388786567</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2673147351232998</v>
+        <v>0.2673147351233069</v>
       </c>
       <c r="L12">
-        <v>1.198227091900961</v>
+        <v>1.198227091900968</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>4.50404344410282</v>
       </c>
       <c r="C13">
-        <v>1.257966336729964</v>
+        <v>1.257966336729908</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05759670993927557</v>
+        <v>0.05759670993928623</v>
       </c>
       <c r="F13">
         <v>2.340506548549328</v>
       </c>
       <c r="G13">
-        <v>1.336036365460586</v>
+        <v>1.3360363654606</v>
       </c>
       <c r="H13">
         <v>0.7328722427461685</v>
       </c>
       <c r="I13">
-        <v>0.04454280428229218</v>
+        <v>0.04454280428229573</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2657753691504681</v>
+        <v>0.2657753691504752</v>
       </c>
       <c r="L13">
-        <v>1.191324750353211</v>
+        <v>1.191324750353225</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>4.419492412783143</v>
       </c>
       <c r="C14">
-        <v>1.234010164354117</v>
+        <v>1.234010164354345</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05665476619092402</v>
+        <v>0.05665476619095955</v>
       </c>
       <c r="F14">
         <v>2.295899458745467</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2607665053016177</v>
+        <v>0.2607665053015964</v>
       </c>
       <c r="L14">
-        <v>1.168863174471248</v>
+        <v>1.168863174471277</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.367836089566026</v>
+        <v>4.367836089565969</v>
       </c>
       <c r="C15">
-        <v>1.219383970647073</v>
+        <v>1.219383970647186</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05607928404302243</v>
+        <v>0.05607928404300822</v>
       </c>
       <c r="F15">
-        <v>2.268701310975032</v>
+        <v>2.268701310975004</v>
       </c>
       <c r="G15">
         <v>1.298148513634317</v>
       </c>
       <c r="H15">
-        <v>0.7159118228053529</v>
+        <v>0.7159118228053387</v>
       </c>
       <c r="I15">
-        <v>0.04604905560635664</v>
+        <v>0.04604905560637373</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2577069629189594</v>
+        <v>0.2577069629189879</v>
       </c>
       <c r="L15">
-        <v>1.155141201825671</v>
+        <v>1.155141201825643</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.073733519530151</v>
+        <v>4.073733519530208</v>
       </c>
       <c r="C16">
-        <v>1.136250550600948</v>
+        <v>1.136250550601005</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05280319670373856</v>
+        <v>0.0528031967037883</v>
       </c>
       <c r="F16">
         <v>2.114657105667064</v>
       </c>
       <c r="G16">
-        <v>1.217927562155452</v>
+        <v>1.217927562155424</v>
       </c>
       <c r="H16">
         <v>0.6804753698639274</v>
       </c>
       <c r="I16">
-        <v>0.04941281910555806</v>
+        <v>0.04941281910557294</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2402973242786288</v>
+        <v>0.2402973242786572</v>
       </c>
       <c r="L16">
         <v>1.077030093086499</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.894889216894001</v>
+        <v>3.894889216893944</v>
       </c>
       <c r="C17">
-        <v>1.085811937439757</v>
+        <v>1.085811937439615</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05081179477996045</v>
+        <v>0.050811794779964</v>
       </c>
       <c r="F17">
-        <v>2.021675191972435</v>
+        <v>2.02167519197242</v>
       </c>
       <c r="G17">
-        <v>1.170231681115084</v>
+        <v>1.170231681115098</v>
       </c>
       <c r="H17">
         <v>0.6597393892637058</v>
       </c>
       <c r="I17">
-        <v>0.05153466043959565</v>
+        <v>0.05153466043959343</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2297194329905849</v>
+        <v>0.2297194329905707</v>
       </c>
       <c r="L17">
-        <v>1.029543827443902</v>
+        <v>1.029543827443916</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.792551871943374</v>
+        <v>3.792551871943488</v>
       </c>
       <c r="C18">
-        <v>1.0569887580574</v>
+        <v>1.056988758057628</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04967274169877456</v>
+        <v>0.04967274169881364</v>
       </c>
       <c r="F18">
         <v>1.968713839323811</v>
       </c>
       <c r="G18">
-        <v>1.143318287546222</v>
+        <v>1.143318287546208</v>
       </c>
       <c r="H18">
-        <v>0.6481580895004626</v>
+        <v>0.6481580895004555</v>
       </c>
       <c r="I18">
-        <v>0.05277546548269996</v>
+        <v>0.05277546548268575</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2236699928362853</v>
+        <v>0.2236699928362782</v>
       </c>
       <c r="L18">
-        <v>1.002376547248168</v>
+        <v>1.002376547248161</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.757988487325576</v>
+        <v>3.75798848732552</v>
       </c>
       <c r="C19">
-        <v>1.047260310417357</v>
+        <v>1.047260310417187</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04928813135562038</v>
+        <v>0.04928813135561683</v>
       </c>
       <c r="F19">
         <v>1.950867698116312</v>
       </c>
       <c r="G19">
-        <v>1.134291789373435</v>
+        <v>1.134291789373421</v>
       </c>
       <c r="H19">
         <v>0.6442940984788095</v>
       </c>
       <c r="I19">
-        <v>0.05319898797455314</v>
+        <v>0.05319898797456535</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.2216274462369583</v>
+        <v>0.221627446236937</v>
       </c>
       <c r="L19">
-        <v>0.993201963467321</v>
+        <v>0.9932019634673281</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.913871624227511</v>
+        <v>3.913871624227397</v>
       </c>
       <c r="C20">
-        <v>1.091161379002386</v>
+        <v>1.091161379002529</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05102311699851469</v>
+        <v>0.05102311699856088</v>
       </c>
       <c r="F20">
-        <v>2.03151866997429</v>
+        <v>2.031518669974318</v>
       </c>
       <c r="G20">
-        <v>1.175254351902538</v>
+        <v>1.175254351902552</v>
       </c>
       <c r="H20">
-        <v>0.6619105080969661</v>
+        <v>0.6619105080969732</v>
       </c>
       <c r="I20">
-        <v>0.05130665536067758</v>
+        <v>0.05130665536069579</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0.2308418138571824</v>
       </c>
       <c r="L20">
-        <v>1.034583465204591</v>
+        <v>1.034583465204612</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.444298935024165</v>
+        <v>4.444298935024051</v>
       </c>
       <c r="C21">
-        <v>1.241036626057053</v>
+        <v>1.24103662605728</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05693112585669269</v>
+        <v>0.05693112585669979</v>
       </c>
       <c r="F21">
-        <v>2.308975354718712</v>
+        <v>2.308975354718726</v>
       </c>
       <c r="G21">
-        <v>1.319361117027029</v>
+        <v>1.319361117027015</v>
       </c>
       <c r="H21">
         <v>0.7253907705700868</v>
       </c>
       <c r="I21">
-        <v>0.04519952242483116</v>
+        <v>0.04519952242484693</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2622359339348037</v>
+        <v>0.2622359339348108</v>
       </c>
       <c r="L21">
-        <v>1.175453016768927</v>
+        <v>1.175453016768898</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.796804682367053</v>
+        <v>4.79680468236694</v>
       </c>
       <c r="C22">
-        <v>1.341070874540151</v>
+        <v>1.34107087453998</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06085773876672462</v>
+        <v>0.06085773876672818</v>
       </c>
       <c r="F22">
-        <v>2.495796237860048</v>
+        <v>2.49579623786012</v>
       </c>
       <c r="G22">
-        <v>1.41900791081693</v>
+        <v>1.419007910816958</v>
       </c>
       <c r="H22">
-        <v>0.7704701720992873</v>
+        <v>0.7704701720993015</v>
       </c>
       <c r="I22">
-        <v>0.04141313890502385</v>
+        <v>0.04141313890501008</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2831275834410079</v>
+        <v>0.283127583441015</v>
       </c>
       <c r="L22">
-        <v>1.269111492793684</v>
+        <v>1.269111492793698</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>4.608072363762915</v>
       </c>
       <c r="C23">
-        <v>1.287468720306947</v>
+        <v>1.287468720307004</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05875559478176839</v>
+        <v>0.05875559478178261</v>
       </c>
       <c r="F23">
-        <v>2.39553964086393</v>
+        <v>2.395539640863902</v>
       </c>
       <c r="G23">
-        <v>1.365280937110299</v>
+        <v>1.365280937110285</v>
       </c>
       <c r="H23">
-        <v>0.7460549468810385</v>
+        <v>0.7460549468810314</v>
       </c>
       <c r="I23">
-        <v>0.0434139856663629</v>
+        <v>0.04341398566636601</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2719397488540878</v>
+        <v>0.2719397488540807</v>
       </c>
       <c r="L23">
-        <v>1.218963116913699</v>
+        <v>1.218963116913685</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.905288186547921</v>
+        <v>3.905288186547978</v>
       </c>
       <c r="C24">
-        <v>1.088742356803607</v>
+        <v>1.088742356803351</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05092756015787359</v>
+        <v>0.05092756015788424</v>
       </c>
       <c r="F24">
         <v>2.027066900333608</v>
       </c>
       <c r="G24">
-        <v>1.172982030197048</v>
+        <v>1.172982030197034</v>
       </c>
       <c r="H24">
-        <v>0.6609278914165486</v>
+        <v>0.6609278914165557</v>
       </c>
       <c r="I24">
-        <v>0.05140967150912479</v>
+        <v>0.05140967150911058</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0.2303342867015559</v>
       </c>
       <c r="L24">
-        <v>1.032304633202209</v>
+        <v>1.032304633202187</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.166958275486991</v>
+        <v>3.166958275486877</v>
       </c>
       <c r="C25">
-        <v>0.881386085847538</v>
+        <v>0.8813860858476517</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04272226610213892</v>
+        <v>0.04272226610214247</v>
       </c>
       <c r="F25">
-        <v>1.649078531701448</v>
+        <v>1.649078531701477</v>
       </c>
       <c r="G25">
         <v>0.9850742377085453</v>
@@ -1307,13 +1307,13 @@
         <v>0.5820882983773004</v>
       </c>
       <c r="I25">
-        <v>0.06080442271186626</v>
+        <v>0.06080442271189179</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.186752755480498</v>
+        <v>0.1867527554805122</v>
       </c>
       <c r="L25">
         <v>0.8363973573727961</v>

--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.635101716280758</v>
+        <v>2.635101716280928</v>
       </c>
       <c r="C2">
-        <v>0.7328685788605753</v>
+        <v>0.732868578860689</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03684276529986974</v>
+        <v>0.03684276529987152</v>
       </c>
       <c r="F2">
-        <v>1.383507190218964</v>
+        <v>1.383507190218978</v>
       </c>
       <c r="G2">
-        <v>0.8597238626055912</v>
+        <v>0.8597238626055841</v>
       </c>
       <c r="H2">
-        <v>0.5328738622476692</v>
+        <v>0.5328738622476621</v>
       </c>
       <c r="I2">
-        <v>0.06828676724336535</v>
+        <v>0.06828676724332849</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1554747321492194</v>
+        <v>0.1554747321492371</v>
       </c>
       <c r="L2">
-        <v>0.6954530851515983</v>
+        <v>0.6954530851515912</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279790884553677</v>
+        <v>2.279790884553734</v>
       </c>
       <c r="C3">
-        <v>0.6340237739192958</v>
+        <v>0.6340237739195516</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>0.504038272040475</v>
       </c>
       <c r="I3">
-        <v>0.07367154653078289</v>
+        <v>0.07367154653078301</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.134651784008561</v>
+        <v>0.1346517840085717</v>
       </c>
       <c r="L3">
-        <v>0.6014067728442996</v>
+        <v>0.6014067728442924</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.063522431426293</v>
+        <v>2.063522431426406</v>
       </c>
       <c r="C4">
-        <v>0.5739974969154957</v>
+        <v>0.5739974969157231</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -500,25 +500,25 @@
         <v>0.03057868263345753</v>
       </c>
       <c r="F4">
-        <v>1.10561067980494</v>
+        <v>1.105610679804954</v>
       </c>
       <c r="G4">
-        <v>0.7358512069280536</v>
+        <v>0.7358512069280678</v>
       </c>
       <c r="H4">
-        <v>0.4882719889284033</v>
+        <v>0.4882719889284104</v>
       </c>
       <c r="I4">
-        <v>0.07712207827336703</v>
+        <v>0.07712207827338691</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.1220126917644997</v>
+        <v>0.1220126917645175</v>
       </c>
       <c r="L4">
-        <v>0.5442183334950315</v>
+        <v>0.5442183334950101</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.97578226523396</v>
+        <v>1.975782265234045</v>
       </c>
       <c r="C5">
         <v>0.5496731865035542</v>
@@ -535,28 +535,28 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02962433022790911</v>
+        <v>0.02962433022793931</v>
       </c>
       <c r="F5">
-        <v>1.063749785808682</v>
+        <v>1.063749785808668</v>
       </c>
       <c r="G5">
-        <v>0.7179656015935194</v>
+        <v>0.7179656015935336</v>
       </c>
       <c r="H5">
         <v>0.482295273397213</v>
       </c>
       <c r="I5">
-        <v>0.07856306920655853</v>
+        <v>0.07856306920656542</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1168937640801211</v>
+        <v>0.1168937640800607</v>
       </c>
       <c r="L5">
-        <v>0.5210306824810829</v>
+        <v>0.52103068248109</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.961234332335181</v>
+        <v>1.961234332335209</v>
       </c>
       <c r="C6">
-        <v>0.5456415830362005</v>
+        <v>0.545641583036371</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02946632019656548</v>
+        <v>0.02946632019655659</v>
       </c>
       <c r="F6">
-        <v>1.05683156948659</v>
+        <v>1.056831569486604</v>
       </c>
       <c r="G6">
-        <v>0.715031745427936</v>
+        <v>0.7150317454279218</v>
       </c>
       <c r="H6">
-        <v>0.481328818292333</v>
+        <v>0.4813288182923188</v>
       </c>
       <c r="I6">
-        <v>0.07880441276058325</v>
+        <v>0.07880441276061179</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1160455347484017</v>
+        <v>0.1160455347483946</v>
       </c>
       <c r="L6">
-        <v>0.517186830806601</v>
+        <v>0.5171868308065939</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.062337661374045</v>
+        <v>2.062337661374158</v>
       </c>
       <c r="C7">
-        <v>0.5736689347204731</v>
+        <v>0.5736689347206152</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03056578063522331</v>
+        <v>0.03056578063522153</v>
       </c>
       <c r="F7">
         <v>1.105043891975953</v>
       </c>
       <c r="G7">
-        <v>0.7356075418347956</v>
+        <v>0.7356075418347814</v>
       </c>
       <c r="H7">
         <v>0.4881896200757083</v>
       </c>
       <c r="I7">
-        <v>0.07714137252674524</v>
+        <v>0.07714137252672704</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1219435347152427</v>
+        <v>0.1219435347152533</v>
       </c>
       <c r="L7">
-        <v>0.543905171415858</v>
+        <v>0.5439051714158509</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,13 +643,13 @@
         <v>2.512143836681503</v>
       </c>
       <c r="C8">
-        <v>0.698629830385471</v>
+        <v>0.6986298303857552</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03548945103060142</v>
+        <v>0.03548945103062628</v>
       </c>
       <c r="F8">
         <v>1.323019400299373</v>
@@ -661,13 +661,13 @@
         <v>0.5225042604324415</v>
       </c>
       <c r="I8">
-        <v>0.07011260367740779</v>
+        <v>0.07011260367740657</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1482613736776734</v>
+        <v>0.1482613736776841</v>
       </c>
       <c r="L8">
         <v>0.6628961136630664</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.413516984824412</v>
+        <v>3.413516984824525</v>
       </c>
       <c r="C9">
-        <v>0.9504741318328342</v>
+        <v>0.9504741318328058</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04545835580881175</v>
+        <v>0.04545835580884017</v>
       </c>
       <c r="F9">
         <v>1.774177020465444</v>
@@ -696,19 +696,19 @@
         <v>1.046118251666385</v>
       </c>
       <c r="H9">
-        <v>0.6071294511737619</v>
+        <v>0.6071294511737833</v>
       </c>
       <c r="I9">
-        <v>0.05754622925981745</v>
+        <v>0.05754622925982011</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.2012884253054494</v>
+        <v>0.2012884253054352</v>
       </c>
       <c r="L9">
-        <v>0.9017914976078103</v>
+        <v>0.9017914976078245</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>4.094216207996112</v>
       </c>
       <c r="C10">
-        <v>1.142032697319735</v>
+        <v>1.142032697319706</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05303131852425835</v>
+        <v>0.05303131852422993</v>
       </c>
       <c r="F10">
-        <v>2.125340135495989</v>
+        <v>2.125340135496003</v>
       </c>
       <c r="G10">
-        <v>1.223443120149469</v>
+        <v>1.223443120149454</v>
       </c>
       <c r="H10">
         <v>0.6828899486716367</v>
       </c>
       <c r="I10">
-        <v>0.04917353683054282</v>
+        <v>0.04917353683055437</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.2415092435805803</v>
+        <v>0.2415092435805661</v>
       </c>
       <c r="L10">
-        <v>1.082469277867972</v>
+        <v>1.082469277867965</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>4.409606326769847</v>
       </c>
       <c r="C11">
-        <v>1.231210401966507</v>
+        <v>1.231210401966564</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05654462912055536</v>
+        <v>0.05654462912056246</v>
       </c>
       <c r="F11">
-        <v>2.290691010635186</v>
+        <v>2.290691010635229</v>
       </c>
       <c r="G11">
-        <v>1.309718573691981</v>
+        <v>1.309718573691967</v>
       </c>
       <c r="H11">
-        <v>0.7210765808503012</v>
+        <v>0.7210765808503083</v>
       </c>
       <c r="I11">
-        <v>0.04558370867766381</v>
+        <v>0.04558370867767492</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0.2601809274058979</v>
       </c>
       <c r="L11">
-        <v>1.166236983537488</v>
+        <v>1.166236983537495</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,13 +795,13 @@
         <v>4.530024276336576</v>
       </c>
       <c r="C12">
-        <v>1.265331599783849</v>
+        <v>1.265331599783735</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05788614464338693</v>
+        <v>0.05788614464339403</v>
       </c>
       <c r="F12">
         <v>2.354235451249778</v>
@@ -813,16 +813,16 @@
         <v>0.736146095892444</v>
       </c>
       <c r="I12">
-        <v>0.04425914388786567</v>
+        <v>0.04425914388787855</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2673147351233069</v>
+        <v>0.2673147351232998</v>
       </c>
       <c r="L12">
-        <v>1.198227091900968</v>
+        <v>1.198227091900961</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>4.50404344410282</v>
       </c>
       <c r="C13">
-        <v>1.257966336729908</v>
+        <v>1.257966336729964</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05759670993928623</v>
+        <v>0.05759670993927557</v>
       </c>
       <c r="F13">
         <v>2.340506548549328</v>
       </c>
       <c r="G13">
-        <v>1.3360363654606</v>
+        <v>1.336036365460586</v>
       </c>
       <c r="H13">
         <v>0.7328722427461685</v>
       </c>
       <c r="I13">
-        <v>0.04454280428229573</v>
+        <v>0.04454280428229218</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2657753691504752</v>
+        <v>0.2657753691504681</v>
       </c>
       <c r="L13">
-        <v>1.191324750353225</v>
+        <v>1.191324750353211</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,13 +871,13 @@
         <v>4.419492412783143</v>
       </c>
       <c r="C14">
-        <v>1.234010164354345</v>
+        <v>1.234010164354117</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05665476619095955</v>
+        <v>0.05665476619092402</v>
       </c>
       <c r="F14">
         <v>2.295899458745467</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2607665053015964</v>
+        <v>0.2607665053016177</v>
       </c>
       <c r="L14">
-        <v>1.168863174471277</v>
+        <v>1.168863174471248</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.367836089565969</v>
+        <v>4.367836089566026</v>
       </c>
       <c r="C15">
-        <v>1.219383970647186</v>
+        <v>1.219383970647073</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05607928404300822</v>
+        <v>0.05607928404302243</v>
       </c>
       <c r="F15">
-        <v>2.268701310975004</v>
+        <v>2.268701310975032</v>
       </c>
       <c r="G15">
         <v>1.298148513634317</v>
       </c>
       <c r="H15">
-        <v>0.7159118228053387</v>
+        <v>0.7159118228053529</v>
       </c>
       <c r="I15">
-        <v>0.04604905560637373</v>
+        <v>0.04604905560635664</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2577069629189879</v>
+        <v>0.2577069629189594</v>
       </c>
       <c r="L15">
-        <v>1.155141201825643</v>
+        <v>1.155141201825671</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.073733519530208</v>
+        <v>4.073733519530151</v>
       </c>
       <c r="C16">
-        <v>1.136250550601005</v>
+        <v>1.136250550600948</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0528031967037883</v>
+        <v>0.05280319670373856</v>
       </c>
       <c r="F16">
         <v>2.114657105667064</v>
       </c>
       <c r="G16">
-        <v>1.217927562155424</v>
+        <v>1.217927562155452</v>
       </c>
       <c r="H16">
         <v>0.6804753698639274</v>
       </c>
       <c r="I16">
-        <v>0.04941281910557294</v>
+        <v>0.04941281910555806</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.2402973242786572</v>
+        <v>0.2402973242786288</v>
       </c>
       <c r="L16">
         <v>1.077030093086499</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.894889216893944</v>
+        <v>3.894889216894001</v>
       </c>
       <c r="C17">
-        <v>1.085811937439615</v>
+        <v>1.085811937439757</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.050811794779964</v>
+        <v>0.05081179477996045</v>
       </c>
       <c r="F17">
-        <v>2.02167519197242</v>
+        <v>2.021675191972435</v>
       </c>
       <c r="G17">
-        <v>1.170231681115098</v>
+        <v>1.170231681115084</v>
       </c>
       <c r="H17">
         <v>0.6597393892637058</v>
       </c>
       <c r="I17">
-        <v>0.05153466043959343</v>
+        <v>0.05153466043959565</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2297194329905707</v>
+        <v>0.2297194329905849</v>
       </c>
       <c r="L17">
-        <v>1.029543827443916</v>
+        <v>1.029543827443902</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.792551871943488</v>
+        <v>3.792551871943374</v>
       </c>
       <c r="C18">
-        <v>1.056988758057628</v>
+        <v>1.0569887580574</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04967274169881364</v>
+        <v>0.04967274169877456</v>
       </c>
       <c r="F18">
         <v>1.968713839323811</v>
       </c>
       <c r="G18">
-        <v>1.143318287546208</v>
+        <v>1.143318287546222</v>
       </c>
       <c r="H18">
-        <v>0.6481580895004555</v>
+        <v>0.6481580895004626</v>
       </c>
       <c r="I18">
-        <v>0.05277546548268575</v>
+        <v>0.05277546548269996</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.2236699928362782</v>
+        <v>0.2236699928362853</v>
       </c>
       <c r="L18">
-        <v>1.002376547248161</v>
+        <v>1.002376547248168</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.75798848732552</v>
+        <v>3.757988487325576</v>
       </c>
       <c r="C19">
-        <v>1.047260310417187</v>
+        <v>1.047260310417357</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04928813135561683</v>
+        <v>0.04928813135562038</v>
       </c>
       <c r="F19">
         <v>1.950867698116312</v>
       </c>
       <c r="G19">
-        <v>1.134291789373421</v>
+        <v>1.134291789373435</v>
       </c>
       <c r="H19">
         <v>0.6442940984788095</v>
       </c>
       <c r="I19">
-        <v>0.05319898797456535</v>
+        <v>0.05319898797455314</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.221627446236937</v>
+        <v>0.2216274462369583</v>
       </c>
       <c r="L19">
-        <v>0.9932019634673281</v>
+        <v>0.993201963467321</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.913871624227397</v>
+        <v>3.913871624227511</v>
       </c>
       <c r="C20">
-        <v>1.091161379002529</v>
+        <v>1.091161379002386</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05102311699856088</v>
+        <v>0.05102311699851469</v>
       </c>
       <c r="F20">
-        <v>2.031518669974318</v>
+        <v>2.03151866997429</v>
       </c>
       <c r="G20">
-        <v>1.175254351902552</v>
+        <v>1.175254351902538</v>
       </c>
       <c r="H20">
-        <v>0.6619105080969732</v>
+        <v>0.6619105080969661</v>
       </c>
       <c r="I20">
-        <v>0.05130665536069579</v>
+        <v>0.05130665536067758</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0.2308418138571824</v>
       </c>
       <c r="L20">
-        <v>1.034583465204612</v>
+        <v>1.034583465204591</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.444298935024051</v>
+        <v>4.444298935024165</v>
       </c>
       <c r="C21">
-        <v>1.24103662605728</v>
+        <v>1.241036626057053</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05693112585669979</v>
+        <v>0.05693112585669269</v>
       </c>
       <c r="F21">
-        <v>2.308975354718726</v>
+        <v>2.308975354718712</v>
       </c>
       <c r="G21">
-        <v>1.319361117027015</v>
+        <v>1.319361117027029</v>
       </c>
       <c r="H21">
         <v>0.7253907705700868</v>
       </c>
       <c r="I21">
-        <v>0.04519952242484693</v>
+        <v>0.04519952242483116</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2622359339348108</v>
+        <v>0.2622359339348037</v>
       </c>
       <c r="L21">
-        <v>1.175453016768898</v>
+        <v>1.175453016768927</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.79680468236694</v>
+        <v>4.796804682367053</v>
       </c>
       <c r="C22">
-        <v>1.34107087453998</v>
+        <v>1.341070874540151</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06085773876672818</v>
+        <v>0.06085773876672462</v>
       </c>
       <c r="F22">
-        <v>2.49579623786012</v>
+        <v>2.495796237860048</v>
       </c>
       <c r="G22">
-        <v>1.419007910816958</v>
+        <v>1.41900791081693</v>
       </c>
       <c r="H22">
-        <v>0.7704701720993015</v>
+        <v>0.7704701720992873</v>
       </c>
       <c r="I22">
-        <v>0.04141313890501008</v>
+        <v>0.04141313890502385</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.283127583441015</v>
+        <v>0.2831275834410079</v>
       </c>
       <c r="L22">
-        <v>1.269111492793698</v>
+        <v>1.269111492793684</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,34 +1213,34 @@
         <v>4.608072363762915</v>
       </c>
       <c r="C23">
-        <v>1.287468720307004</v>
+        <v>1.287468720306947</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05875559478178261</v>
+        <v>0.05875559478176839</v>
       </c>
       <c r="F23">
-        <v>2.395539640863902</v>
+        <v>2.39553964086393</v>
       </c>
       <c r="G23">
-        <v>1.365280937110285</v>
+        <v>1.365280937110299</v>
       </c>
       <c r="H23">
-        <v>0.7460549468810314</v>
+        <v>0.7460549468810385</v>
       </c>
       <c r="I23">
-        <v>0.04341398566636601</v>
+        <v>0.0434139856663629</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2719397488540807</v>
+        <v>0.2719397488540878</v>
       </c>
       <c r="L23">
-        <v>1.218963116913685</v>
+        <v>1.218963116913699</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.905288186547978</v>
+        <v>3.905288186547921</v>
       </c>
       <c r="C24">
-        <v>1.088742356803351</v>
+        <v>1.088742356803607</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05092756015788424</v>
+        <v>0.05092756015787359</v>
       </c>
       <c r="F24">
         <v>2.027066900333608</v>
       </c>
       <c r="G24">
-        <v>1.172982030197034</v>
+        <v>1.172982030197048</v>
       </c>
       <c r="H24">
-        <v>0.6609278914165557</v>
+        <v>0.6609278914165486</v>
       </c>
       <c r="I24">
-        <v>0.05140967150911058</v>
+        <v>0.05140967150912479</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0.2303342867015559</v>
       </c>
       <c r="L24">
-        <v>1.032304633202187</v>
+        <v>1.032304633202209</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.166958275486877</v>
+        <v>3.166958275486991</v>
       </c>
       <c r="C25">
-        <v>0.8813860858476517</v>
+        <v>0.881386085847538</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04272226610214247</v>
+        <v>0.04272226610213892</v>
       </c>
       <c r="F25">
-        <v>1.649078531701477</v>
+        <v>1.649078531701448</v>
       </c>
       <c r="G25">
         <v>0.9850742377085453</v>
@@ -1307,13 +1307,13 @@
         <v>0.5820882983773004</v>
       </c>
       <c r="I25">
-        <v>0.06080442271189179</v>
+        <v>0.06080442271186626</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1867527554805122</v>
+        <v>0.186752755480498</v>
       </c>
       <c r="L25">
         <v>0.8363973573727961</v>

--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.635101716280928</v>
+        <v>2.634949908181341</v>
       </c>
       <c r="C2">
-        <v>0.732868578860689</v>
+        <v>0.7323759875575035</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03684276529987152</v>
+        <v>0.03692384798645598</v>
       </c>
       <c r="F2">
-        <v>1.383507190218978</v>
+        <v>1.382572163399118</v>
       </c>
       <c r="G2">
-        <v>0.8597238626055841</v>
+        <v>0.2701041965677362</v>
       </c>
       <c r="H2">
-        <v>0.5328738622476621</v>
+        <v>0.5918263322899264</v>
       </c>
       <c r="I2">
-        <v>0.06828676724332849</v>
+        <v>0.5316862425894513</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.06824380831026267</v>
       </c>
       <c r="K2">
-        <v>0.1554747321492371</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6954530851515912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1555626903160423</v>
+      </c>
+      <c r="M2">
+        <v>0.6955756786321885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.279790884553734</v>
+        <v>2.27968725870187</v>
       </c>
       <c r="C3">
-        <v>0.6340237739195516</v>
+        <v>0.633609392908113</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03294015281808882</v>
+        <v>0.03301323864729966</v>
       </c>
       <c r="F3">
-        <v>1.20974381534765</v>
+        <v>1.208921019762897</v>
       </c>
       <c r="G3">
-        <v>0.7812770437259431</v>
+        <v>0.2412577023732894</v>
       </c>
       <c r="H3">
-        <v>0.504038272040475</v>
+        <v>0.5425122752643361</v>
       </c>
       <c r="I3">
-        <v>0.07367154653078301</v>
+        <v>0.5029689885583508</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07362486932665535</v>
       </c>
       <c r="K3">
-        <v>0.1346517840085717</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6014067728442924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1347296278952541</v>
+      </c>
+      <c r="M3">
+        <v>0.6015192035996222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.063522431426406</v>
+        <v>2.063444595370186</v>
       </c>
       <c r="C4">
-        <v>0.5739974969157231</v>
+        <v>0.5736295255821062</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03057868263345753</v>
+        <v>0.03064694695192749</v>
       </c>
       <c r="F4">
-        <v>1.105610679804954</v>
+        <v>1.104855313970887</v>
       </c>
       <c r="G4">
-        <v>0.7358512069280678</v>
+        <v>0.2244215601664692</v>
       </c>
       <c r="H4">
-        <v>0.4882719889284104</v>
+        <v>0.5140932690226521</v>
       </c>
       <c r="I4">
-        <v>0.07712207827338691</v>
+        <v>0.4872733678544492</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07707277783021604</v>
       </c>
       <c r="K4">
-        <v>0.1220126917645175</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5442183334950101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1220842815134162</v>
+      </c>
+      <c r="M4">
+        <v>0.5443237808712027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975782265234045</v>
+        <v>1.975714107609434</v>
       </c>
       <c r="C5">
-        <v>0.5496731865035542</v>
+        <v>0.5493237854156234</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02962433022793931</v>
+        <v>0.02969065017455463</v>
       </c>
       <c r="F5">
-        <v>1.063749785808668</v>
+        <v>1.063021589399639</v>
       </c>
       <c r="G5">
-        <v>0.7179656015935336</v>
+        <v>0.2177592866916243</v>
       </c>
       <c r="H5">
-        <v>0.482295273397213</v>
+        <v>0.502938389084548</v>
       </c>
       <c r="I5">
-        <v>0.07856306920656542</v>
+        <v>0.4813250136266589</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07851262100911671</v>
       </c>
       <c r="K5">
-        <v>0.1168937640800607</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.52103068248109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1169627949548335</v>
+      </c>
+      <c r="M5">
+        <v>0.5211331189197139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.961234332335209</v>
+        <v>1.961167734969649</v>
       </c>
       <c r="C6">
-        <v>0.545641583036371</v>
+        <v>0.545295246592957</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02946632019655659</v>
+        <v>0.02953231846365156</v>
       </c>
       <c r="F6">
-        <v>1.056831569486604</v>
+        <v>1.05610786762341</v>
       </c>
       <c r="G6">
-        <v>0.7150317454279218</v>
+        <v>0.216664415216087</v>
       </c>
       <c r="H6">
-        <v>0.4813288182923188</v>
+        <v>0.5011107087973912</v>
       </c>
       <c r="I6">
-        <v>0.07880441276061179</v>
+        <v>0.4803632435253036</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07875376940758116</v>
       </c>
       <c r="K6">
-        <v>0.1160455347483946</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5171868308065939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1161141401237877</v>
+      </c>
+      <c r="M6">
+        <v>0.5172887578993013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.062337661374158</v>
+        <v>2.062259959056462</v>
       </c>
       <c r="C7">
-        <v>0.5736689347206152</v>
+        <v>0.5733012151380024</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03056578063522153</v>
+        <v>0.03063401865085602</v>
       </c>
       <c r="F7">
-        <v>1.105043891975953</v>
+        <v>1.104288893729276</v>
       </c>
       <c r="G7">
-        <v>0.7356075418347814</v>
+        <v>0.2243309336846622</v>
       </c>
       <c r="H7">
-        <v>0.4881896200757083</v>
+        <v>0.5139411578349495</v>
       </c>
       <c r="I7">
-        <v>0.07714137252672704</v>
+        <v>0.4871913831655093</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07709205691500165</v>
       </c>
       <c r="K7">
-        <v>0.1219435347152533</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5439051714158509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.122015089994953</v>
+      </c>
+      <c r="M7">
+        <v>0.5440105788270841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.512143836681503</v>
+        <v>2.512009507444645</v>
       </c>
       <c r="C8">
-        <v>0.6986298303857552</v>
+        <v>0.698164580619931</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03548945103062628</v>
+        <v>0.03556775687289715</v>
       </c>
       <c r="F8">
-        <v>1.323019400299373</v>
+        <v>1.32212341863962</v>
       </c>
       <c r="G8">
-        <v>0.8320667732693749</v>
+        <v>0.2599626134676498</v>
       </c>
       <c r="H8">
-        <v>0.5225042604324415</v>
+        <v>0.574410694925291</v>
       </c>
       <c r="I8">
-        <v>0.07011260367740657</v>
+        <v>0.5213579005218847</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0700684376044669</v>
       </c>
       <c r="K8">
-        <v>0.1482613736776841</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6628961136630664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1483458540876796</v>
+      </c>
+      <c r="M8">
+        <v>0.6630153712116496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.413516984824525</v>
+        <v>3.413235202718909</v>
       </c>
       <c r="C9">
-        <v>0.9504741318328058</v>
+        <v>0.949801604881344</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04545835580884017</v>
+        <v>0.04555719619699872</v>
       </c>
       <c r="F9">
-        <v>1.774177020465444</v>
+        <v>1.772989534751275</v>
       </c>
       <c r="G9">
-        <v>1.046118251666385</v>
+        <v>0.3378577559806928</v>
       </c>
       <c r="H9">
-        <v>0.6071294511737833</v>
+        <v>0.7098158949309266</v>
       </c>
       <c r="I9">
-        <v>0.05754622925982011</v>
+        <v>0.6056733050780139</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.05750911431389305</v>
       </c>
       <c r="K9">
-        <v>0.2012884253054352</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.9017914976078245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2013978571769428</v>
+      </c>
+      <c r="M9">
+        <v>0.9019308928761305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.094216207996112</v>
+        <v>4.093793721856798</v>
       </c>
       <c r="C10">
-        <v>1.142032697319706</v>
+        <v>1.141192917354147</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05303131852422993</v>
+        <v>0.05314585955060736</v>
       </c>
       <c r="F10">
-        <v>2.125340135496003</v>
+        <v>2.123923964822609</v>
       </c>
       <c r="G10">
-        <v>1.223443120149454</v>
+        <v>0.4016422769005032</v>
       </c>
       <c r="H10">
-        <v>0.6828899486716367</v>
+        <v>0.822760541883369</v>
       </c>
       <c r="I10">
-        <v>0.04917353683055437</v>
+        <v>0.6811888227473446</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.04913918237662007</v>
       </c>
       <c r="K10">
-        <v>0.2415092435805661</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.082469277867965</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.2416366798828378</v>
+      </c>
+      <c r="M10">
+        <v>1.082617357100894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.409606326769847</v>
+        <v>4.409110043032797</v>
       </c>
       <c r="C11">
-        <v>1.231210401966564</v>
+        <v>1.230289885030459</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05654462912056246</v>
+        <v>0.05666647707595374</v>
       </c>
       <c r="F11">
-        <v>2.290691010635229</v>
+        <v>2.289166194347587</v>
       </c>
       <c r="G11">
-        <v>1.309718573691967</v>
+        <v>0.4325086771220867</v>
       </c>
       <c r="H11">
-        <v>0.7210765808503083</v>
+        <v>0.8778853886907001</v>
       </c>
       <c r="I11">
-        <v>0.04558370867767492</v>
+        <v>0.7192587240438115</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.04554993143623465</v>
       </c>
       <c r="K11">
-        <v>0.2601809274058979</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.166236983537495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2603164547640375</v>
+      </c>
+      <c r="M11">
+        <v>1.166387183349308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.530024276336576</v>
+        <v>4.529498360615605</v>
       </c>
       <c r="C12">
-        <v>1.265331599783735</v>
+        <v>1.26437970047607</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05788614464339403</v>
+        <v>0.05801078593255937</v>
       </c>
       <c r="F12">
-        <v>2.354235451249778</v>
+        <v>2.352668682411689</v>
       </c>
       <c r="G12">
-        <v>1.343315267548064</v>
+        <v>0.4445038818737004</v>
       </c>
       <c r="H12">
-        <v>0.736146095892444</v>
+        <v>0.8993769910751723</v>
       </c>
       <c r="I12">
-        <v>0.04425914388787855</v>
+        <v>0.7342831244529506</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.04422547208328664</v>
       </c>
       <c r="K12">
-        <v>0.2673147351232998</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.198227091900961</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2674533087322715</v>
+      </c>
+      <c r="M12">
+        <v>1.198377780096763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.50404344410282</v>
+        <v>4.503523990116435</v>
       </c>
       <c r="C13">
-        <v>1.257966336729964</v>
+        <v>1.257021234639922</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05759670993927557</v>
+        <v>0.05772074841736696</v>
       </c>
       <c r="F13">
-        <v>2.340506548549328</v>
+        <v>2.338948853624018</v>
       </c>
       <c r="G13">
-        <v>1.336036365460586</v>
+        <v>0.4419061525619128</v>
       </c>
       <c r="H13">
-        <v>0.7328722427461685</v>
+        <v>0.8947195914431347</v>
       </c>
       <c r="I13">
-        <v>0.04454280428229218</v>
+        <v>0.731019030747035</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.04450911507928978</v>
       </c>
       <c r="K13">
-        <v>0.2657753691504681</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.191324750353211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2659132875439099</v>
+      </c>
+      <c r="M13">
+        <v>1.191475348280981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.419492412783143</v>
+        <v>4.418993726769997</v>
       </c>
       <c r="C14">
-        <v>1.234010164354117</v>
+        <v>1.233087082670806</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05665476619092402</v>
+        <v>0.05677684341143063</v>
       </c>
       <c r="F14">
-        <v>2.295899458745467</v>
+        <v>2.294371208180365</v>
       </c>
       <c r="G14">
-        <v>1.312463295768609</v>
+        <v>0.4334891301839576</v>
       </c>
       <c r="H14">
-        <v>0.7223036965274972</v>
+        <v>0.8796406649099993</v>
       </c>
       <c r="I14">
-        <v>0.04547401677350593</v>
+        <v>0.7204821473277363</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.04544025057284329</v>
       </c>
       <c r="K14">
-        <v>0.2607665053016177</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.168863174471248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2609022836531381</v>
+      </c>
+      <c r="M14">
+        <v>1.169013421096736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.367836089566026</v>
+        <v>4.367349895833343</v>
       </c>
       <c r="C15">
-        <v>1.219383970647073</v>
+        <v>1.21847426718864</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05607928404302243</v>
+        <v>0.05620016345150347</v>
       </c>
       <c r="F15">
-        <v>2.268701310975032</v>
+        <v>2.267190985537837</v>
       </c>
       <c r="G15">
-        <v>1.298148513634317</v>
+        <v>0.4283747068400316</v>
       </c>
       <c r="H15">
-        <v>0.7159118228053529</v>
+        <v>0.8704872382744782</v>
       </c>
       <c r="I15">
-        <v>0.04604905560635664</v>
+        <v>0.7141095444208645</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.04601522699986438</v>
       </c>
       <c r="K15">
-        <v>0.2577069629189594</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.155141201825671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2578414280176347</v>
+      </c>
+      <c r="M15">
+        <v>1.155291190607095</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.073733519530151</v>
+        <v>4.073315636465452</v>
       </c>
       <c r="C16">
-        <v>1.136250550600948</v>
+        <v>1.135415941909287</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05280319670373856</v>
+        <v>0.05291726374387551</v>
       </c>
       <c r="F16">
-        <v>2.114657105667064</v>
+        <v>2.113247930352372</v>
       </c>
       <c r="G16">
-        <v>1.217927562155452</v>
+        <v>0.3996656829842777</v>
       </c>
       <c r="H16">
-        <v>0.6804753698639274</v>
+        <v>0.8192398555751481</v>
       </c>
       <c r="I16">
-        <v>0.04941281910555806</v>
+        <v>0.6787817538326095</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.04937841200454773</v>
       </c>
       <c r="K16">
-        <v>0.2402973242786288</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.077030093086499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2404242295450061</v>
+      </c>
+      <c r="M16">
+        <v>1.077177992715704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.894889216894001</v>
+        <v>3.894510548648896</v>
       </c>
       <c r="C17">
-        <v>1.085811937439757</v>
+        <v>1.08502211263459</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05081179477996045</v>
+        <v>0.05092172668054928</v>
       </c>
       <c r="F17">
-        <v>2.021675191972435</v>
+        <v>2.020326789789607</v>
       </c>
       <c r="G17">
-        <v>1.170231681115084</v>
+        <v>0.3825549517641207</v>
       </c>
       <c r="H17">
-        <v>0.6597393892637058</v>
+        <v>0.7888133682586442</v>
       </c>
       <c r="I17">
-        <v>0.05153466043959565</v>
+        <v>0.6581109798648868</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.05149971439354717</v>
       </c>
       <c r="K17">
-        <v>0.2297194329905849</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.029543827443902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2298416729872415</v>
+      </c>
+      <c r="M17">
+        <v>1.029689942908071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.792551871943374</v>
+        <v>3.792194856665276</v>
       </c>
       <c r="C18">
-        <v>1.0569887580574</v>
+        <v>1.056224263426003</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04967274169877456</v>
+        <v>0.04978031050224985</v>
       </c>
       <c r="F18">
-        <v>1.968713839323811</v>
+        <v>1.967399967939983</v>
       </c>
       <c r="G18">
-        <v>1.143318287546222</v>
+        <v>0.3728847739453585</v>
       </c>
       <c r="H18">
-        <v>0.6481580895004626</v>
+        <v>0.7716601914195991</v>
       </c>
       <c r="I18">
-        <v>0.05277546548269996</v>
+        <v>0.6465666978154232</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.05274014665562099</v>
       </c>
       <c r="K18">
-        <v>0.2236699928362853</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.002376547248168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2237895404006238</v>
+      </c>
+      <c r="M18">
+        <v>1.00252146784721</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.757988487325576</v>
+        <v>3.757638656134986</v>
       </c>
       <c r="C19">
-        <v>1.047260310417357</v>
+        <v>1.046504322483742</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04928813135562038</v>
+        <v>0.04939490260793633</v>
       </c>
       <c r="F19">
-        <v>1.950867698116312</v>
+        <v>1.949565449477447</v>
       </c>
       <c r="G19">
-        <v>1.134291789373435</v>
+        <v>0.3696389090838323</v>
       </c>
       <c r="H19">
-        <v>0.6442940984788095</v>
+        <v>0.7659098444605092</v>
       </c>
       <c r="I19">
-        <v>0.05319898797455314</v>
+        <v>0.642715160842954</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.05316353257737427</v>
       </c>
       <c r="K19">
-        <v>0.2216274462369583</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.993201963467321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.221746080717331</v>
+      </c>
+      <c r="M19">
+        <v>0.9933464519634114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.913871624227511</v>
+        <v>3.913488876759175</v>
       </c>
       <c r="C20">
-        <v>1.091161379002386</v>
+        <v>1.090366832149073</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05102311699851469</v>
+        <v>0.05113348748669466</v>
       </c>
       <c r="F20">
-        <v>2.03151866997429</v>
+        <v>2.030163843287568</v>
       </c>
       <c r="G20">
-        <v>1.175254351902538</v>
+        <v>0.3843583941816604</v>
       </c>
       <c r="H20">
-        <v>0.6619105080969661</v>
+        <v>0.7920158354102398</v>
       </c>
       <c r="I20">
-        <v>0.05130665536067758</v>
+        <v>0.6602752088007549</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.05127177328957688</v>
       </c>
       <c r="K20">
-        <v>0.2308418138571824</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.034583465204591</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2309645514425256</v>
+      </c>
+      <c r="M20">
+        <v>1.034729788396369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.444298935024165</v>
+        <v>4.443794197181319</v>
       </c>
       <c r="C21">
-        <v>1.241036626057053</v>
+        <v>1.240107099635054</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05693112585669269</v>
+        <v>0.05705377840852321</v>
       </c>
       <c r="F21">
-        <v>2.308975354718712</v>
+        <v>2.307438478936575</v>
       </c>
       <c r="G21">
-        <v>1.319361117027029</v>
+        <v>0.4359527380196795</v>
       </c>
       <c r="H21">
-        <v>0.7253907705700868</v>
+        <v>0.8840522907033659</v>
       </c>
       <c r="I21">
-        <v>0.04519952242483116</v>
+        <v>0.7235599472944685</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.04516578204851029</v>
       </c>
       <c r="K21">
-        <v>0.2622359339348037</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.175453016768927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2623723413792902</v>
+      </c>
+      <c r="M21">
+        <v>1.175603375576351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.796804682367053</v>
+        <v>4.79621022115208</v>
       </c>
       <c r="C22">
-        <v>1.341070874540151</v>
+        <v>1.340048332774415</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06085773876672462</v>
+        <v>0.06098857334770003</v>
       </c>
       <c r="F22">
-        <v>2.495796237860048</v>
+        <v>2.494135568583687</v>
       </c>
       <c r="G22">
-        <v>1.41900791081693</v>
+        <v>0.4714835044176482</v>
       </c>
       <c r="H22">
-        <v>0.7704701720992873</v>
+        <v>0.9478438400475397</v>
       </c>
       <c r="I22">
-        <v>0.04141313890502385</v>
+        <v>0.7685061623965836</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.04137947591265112</v>
       </c>
       <c r="K22">
-        <v>0.2831275834410079</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.269111492793684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2832728197310246</v>
+      </c>
+      <c r="M22">
+        <v>1.269262624164213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.608072363762915</v>
+        <v>4.607526809245485</v>
       </c>
       <c r="C23">
-        <v>1.287468720306947</v>
+        <v>1.2864963142178</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05875559478176839</v>
+        <v>0.05888204735156322</v>
       </c>
       <c r="F23">
-        <v>2.39553964086393</v>
+        <v>2.393945538553609</v>
       </c>
       <c r="G23">
-        <v>1.365280937110299</v>
+        <v>0.4523395284146972</v>
       </c>
       <c r="H23">
-        <v>0.7460549468810385</v>
+        <v>0.9134353842624989</v>
       </c>
       <c r="I23">
-        <v>0.0434139856663629</v>
+        <v>0.7441625720444591</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.04338034845144545</v>
       </c>
       <c r="K23">
-        <v>0.2719397488540878</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.218963116913699</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2720802840194452</v>
+      </c>
+      <c r="M23">
+        <v>1.219114026149597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.905288186547921</v>
+        <v>3.904907286054936</v>
       </c>
       <c r="C24">
-        <v>1.088742356803607</v>
+        <v>1.087949946075724</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05092756015787359</v>
+        <v>0.05103773231638087</v>
       </c>
       <c r="F24">
-        <v>2.027066900333608</v>
+        <v>2.025714979426638</v>
       </c>
       <c r="G24">
-        <v>1.172982030197048</v>
+        <v>0.3835425406743411</v>
       </c>
       <c r="H24">
-        <v>0.6609278914165486</v>
+        <v>0.7905669486022049</v>
       </c>
       <c r="I24">
-        <v>0.05140967150912479</v>
+        <v>0.6592957084971829</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.0513747607098245</v>
       </c>
       <c r="K24">
-        <v>0.2303342867015559</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.032304633202209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.2304567993589259</v>
+      </c>
+      <c r="M24">
+        <v>1.032450863003312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.166958275486991</v>
+        <v>3.166721242201959</v>
       </c>
       <c r="C25">
-        <v>0.881386085847538</v>
+        <v>0.8807718407287837</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04272226610213892</v>
+        <v>0.0428154535224472</v>
       </c>
       <c r="F25">
-        <v>1.649078531701448</v>
+        <v>1.647972019548448</v>
       </c>
       <c r="G25">
-        <v>0.9850742377085453</v>
+        <v>0.3157653283419819</v>
       </c>
       <c r="H25">
-        <v>0.5820882983773004</v>
+        <v>0.6710740926228027</v>
       </c>
       <c r="I25">
-        <v>0.06080442271186626</v>
+        <v>0.5807185565747872</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.06076577949535844</v>
       </c>
       <c r="K25">
-        <v>0.186752755480498</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8363973573727961</v>
+        <v>0.1868554870403045</v>
+      </c>
+      <c r="M25">
+        <v>0.8365322285420689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.634949908181341</v>
+        <v>2.919376232574905</v>
       </c>
       <c r="C2">
-        <v>0.7323759875575035</v>
+        <v>0.319778859250988</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03692384798645598</v>
+        <v>0.03900230059748822</v>
       </c>
       <c r="F2">
-        <v>1.382572163399118</v>
+        <v>1.906394512537702</v>
       </c>
       <c r="G2">
-        <v>0.2701041965677362</v>
+        <v>0.0008166026632590747</v>
       </c>
       <c r="H2">
-        <v>0.5918263322899264</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5316862425894513</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06824380831026267</v>
+        <v>0.05128231490423918</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6589050481971697</v>
       </c>
       <c r="L2">
-        <v>0.1555626903160423</v>
+        <v>0.3008123549453927</v>
       </c>
       <c r="M2">
-        <v>0.6955756786321885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1.054319275546668</v>
+      </c>
+      <c r="O2">
+        <v>1.227786482583625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.27968725870187</v>
+        <v>2.553287203970001</v>
       </c>
       <c r="C3">
-        <v>0.633609392908113</v>
+        <v>0.2778483082002055</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03301323864729966</v>
+        <v>0.03769208444937</v>
       </c>
       <c r="F3">
-        <v>1.208921019762897</v>
+        <v>1.778986284491026</v>
       </c>
       <c r="G3">
-        <v>0.2412577023732894</v>
+        <v>0.0008238404745557584</v>
       </c>
       <c r="H3">
-        <v>0.5425122752643361</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5029689885583508</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07362486932665535</v>
+        <v>0.05416831055031057</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5722335483990122</v>
       </c>
       <c r="L3">
-        <v>0.1347296278952541</v>
+        <v>0.2682547787942582</v>
       </c>
       <c r="M3">
-        <v>0.6015192035996222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.109695116805767</v>
+      </c>
+      <c r="O3">
+        <v>1.153686403972841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.063444595370186</v>
+        <v>2.331839201923572</v>
       </c>
       <c r="C4">
-        <v>0.5736295255821062</v>
+        <v>0.25236272690438</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03064694695192749</v>
+        <v>0.03691445293063111</v>
       </c>
       <c r="F4">
-        <v>1.104855313970887</v>
+        <v>1.704224201020565</v>
       </c>
       <c r="G4">
-        <v>0.2244215601664692</v>
+        <v>0.0008284125238905421</v>
       </c>
       <c r="H4">
-        <v>0.5140932690226521</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4872733678544492</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07707277783021604</v>
+        <v>0.05601447089511957</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5197439419041885</v>
       </c>
       <c r="L4">
-        <v>0.1220842815134162</v>
+        <v>0.2485513746624122</v>
       </c>
       <c r="M4">
-        <v>0.5443237808712027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.14536097237653</v>
+      </c>
+      <c r="O4">
+        <v>1.110837718216274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.975714107609434</v>
+        <v>2.242338872490734</v>
       </c>
       <c r="C5">
-        <v>0.5493237854156234</v>
+        <v>0.2420300359331549</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.02969065017455463</v>
+        <v>0.03660405607459971</v>
       </c>
       <c r="F5">
-        <v>1.063021589399639</v>
+        <v>1.674566120732706</v>
       </c>
       <c r="G5">
-        <v>0.2177592866916243</v>
+        <v>0.0008303089823464368</v>
       </c>
       <c r="H5">
-        <v>0.502938389084548</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4813250136266589</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07851262100911671</v>
+        <v>0.05678478895301442</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4985135693454694</v>
       </c>
       <c r="L5">
-        <v>0.1169627949548335</v>
+        <v>0.2405877019540696</v>
       </c>
       <c r="M5">
-        <v>0.5211331189197139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.160298411502755</v>
+      </c>
+      <c r="O5">
+        <v>1.093992194820196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.961167734969649</v>
+        <v>2.227519513284733</v>
       </c>
       <c r="C6">
-        <v>0.545295246592957</v>
+        <v>0.2403171485830171</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.02953231846365156</v>
+        <v>0.03655290008084044</v>
       </c>
       <c r="F6">
-        <v>1.05610786762341</v>
+        <v>1.669688445439078</v>
       </c>
       <c r="G6">
-        <v>0.216664415216087</v>
+        <v>0.0008306259312075682</v>
       </c>
       <c r="H6">
-        <v>0.5011107087973912</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4803632435253036</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07875376940758116</v>
+        <v>0.05691376848842911</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4949972723513909</v>
       </c>
       <c r="L6">
-        <v>0.1161141401237877</v>
+        <v>0.2392691204793351</v>
       </c>
       <c r="M6">
-        <v>0.5172887578993013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.162802694366864</v>
+      </c>
+      <c r="O6">
+        <v>1.091230786847817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.062259959056462</v>
+        <v>2.330629289022113</v>
       </c>
       <c r="C7">
-        <v>0.5733012151380024</v>
+        <v>0.2522231782535869</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03063401865085602</v>
+        <v>0.03691024083742889</v>
       </c>
       <c r="F7">
-        <v>1.104288893729276</v>
+        <v>1.703821030918007</v>
       </c>
       <c r="G7">
-        <v>0.2243309336846622</v>
+        <v>0.0008284379638373769</v>
       </c>
       <c r="H7">
-        <v>0.5139411578349495</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4871913831655093</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07709205691500165</v>
+        <v>0.05602478763868213</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5194570050781451</v>
       </c>
       <c r="L7">
-        <v>0.122015089994953</v>
+        <v>0.2484437164203825</v>
       </c>
       <c r="M7">
-        <v>0.5440105788270841</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.145560810324092</v>
+      </c>
+      <c r="O7">
+        <v>1.110608104829829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.512009507444645</v>
+        <v>2.792396801834514</v>
       </c>
       <c r="C8">
-        <v>0.698164580619931</v>
+        <v>0.3052594217408284</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03556775687289715</v>
+        <v>0.0385448040566132</v>
       </c>
       <c r="F8">
-        <v>1.32212341863962</v>
+        <v>1.861704727220413</v>
       </c>
       <c r="G8">
-        <v>0.2599626134676498</v>
+        <v>0.0008190723941223291</v>
       </c>
       <c r="H8">
-        <v>0.574410694925291</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5213579005218847</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0700684376044669</v>
+        <v>0.05226160502569233</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6288552487458361</v>
       </c>
       <c r="L8">
-        <v>0.1483458540876796</v>
+        <v>0.2895228139283006</v>
       </c>
       <c r="M8">
-        <v>0.6630153712116496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.073057741181692</v>
+      </c>
+      <c r="O8">
+        <v>1.201655394952866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.413235202718909</v>
+        <v>3.729138291082563</v>
       </c>
       <c r="C9">
-        <v>0.949801604881344</v>
+        <v>0.4119477014607753</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04555719619699872</v>
+        <v>0.04197622631952669</v>
       </c>
       <c r="F9">
-        <v>1.772989534751275</v>
+        <v>2.201962200167316</v>
       </c>
       <c r="G9">
-        <v>0.3378577559806928</v>
+        <v>0.0008016670636666187</v>
       </c>
       <c r="H9">
-        <v>0.7098158949309266</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6056733050780139</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05750911431389305</v>
+        <v>0.04550309756603799</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8503075690704947</v>
       </c>
       <c r="L9">
-        <v>0.2013978571769428</v>
+        <v>0.3726815614080579</v>
       </c>
       <c r="M9">
-        <v>0.9019308928761305</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.9448400467051101</v>
+      </c>
+      <c r="O9">
+        <v>1.403707337627992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.093793721856798</v>
+        <v>4.443764679058802</v>
       </c>
       <c r="C10">
-        <v>1.141192917354147</v>
+        <v>0.4929343257097969</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05314585955060736</v>
+        <v>0.0446557002865422</v>
       </c>
       <c r="F10">
-        <v>2.123923964822609</v>
+        <v>2.475443519229913</v>
       </c>
       <c r="G10">
-        <v>0.4016422769005032</v>
+        <v>0.0007893807244584559</v>
       </c>
       <c r="H10">
-        <v>0.822760541883369</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6811888227473446</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04913918237662007</v>
+        <v>0.04096786183082735</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.019011519258669</v>
       </c>
       <c r="L10">
-        <v>0.2416366798828378</v>
+        <v>0.4358645384563715</v>
       </c>
       <c r="M10">
-        <v>1.082617357100894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.8602967339765968</v>
+      </c>
+      <c r="O10">
+        <v>1.570313565179532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.409110043032797</v>
+        <v>4.776453925571673</v>
       </c>
       <c r="C11">
-        <v>1.230289885030459</v>
+        <v>0.5305884150099587</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05666647707595374</v>
+        <v>0.04591436276226268</v>
       </c>
       <c r="F11">
-        <v>2.289166194347587</v>
+        <v>2.606163608893326</v>
       </c>
       <c r="G11">
-        <v>0.4325086771220867</v>
+        <v>0.0007838792727526145</v>
       </c>
       <c r="H11">
-        <v>0.8778853886907001</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7192587240438115</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04554993143623465</v>
+        <v>0.03901169879429744</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.097512161311428</v>
       </c>
       <c r="L11">
-        <v>0.2603164547640375</v>
+        <v>0.4651855600633894</v>
       </c>
       <c r="M11">
-        <v>1.166387183349308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.8242232684401856</v>
+      </c>
+      <c r="O11">
+        <v>1.651014401618895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.529498360615605</v>
+        <v>4.903701453687972</v>
       </c>
       <c r="C12">
-        <v>1.26437970047607</v>
+        <v>0.5449872590955351</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05801078593255937</v>
+        <v>0.04639720522891366</v>
       </c>
       <c r="F12">
-        <v>2.352668682411689</v>
+        <v>2.656684474265859</v>
       </c>
       <c r="G12">
-        <v>0.4445038818737004</v>
+        <v>0.0007818066781874303</v>
       </c>
       <c r="H12">
-        <v>0.8993769910751723</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7342831244529506</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04422547208328664</v>
+        <v>0.03828767827252477</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.127533047076412</v>
       </c>
       <c r="L12">
-        <v>0.2674533087322715</v>
+        <v>0.4763833951446657</v>
       </c>
       <c r="M12">
-        <v>1.198377780096763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.8109340455416998</v>
+      </c>
+      <c r="O12">
+        <v>1.682370877129074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.503523990116435</v>
+        <v>4.876237194300586</v>
       </c>
       <c r="C13">
-        <v>1.257021234639922</v>
+        <v>0.5418795817746229</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05772074841736696</v>
+        <v>0.04629293147346658</v>
       </c>
       <c r="F13">
-        <v>2.338948853624018</v>
+        <v>2.645756614353871</v>
       </c>
       <c r="G13">
-        <v>0.4419061525619128</v>
+        <v>0.0007822526061160106</v>
       </c>
       <c r="H13">
-        <v>0.8947195914431347</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.731019030747035</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04450911507928978</v>
+        <v>0.03844284097019113</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.121053700852855</v>
       </c>
       <c r="L13">
-        <v>0.2659132875439099</v>
+        <v>0.4739673395644388</v>
       </c>
       <c r="M13">
-        <v>1.191475348280981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.8137791363138902</v>
+      </c>
+      <c r="O13">
+        <v>1.67558070451885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.418993726769997</v>
+        <v>4.786896241365071</v>
       </c>
       <c r="C14">
-        <v>1.233087082670806</v>
+        <v>0.5317700667656595</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05677684341143063</v>
+        <v>0.04595395888152964</v>
       </c>
       <c r="F14">
-        <v>2.294371208180365</v>
+        <v>2.610298860627324</v>
       </c>
       <c r="G14">
-        <v>0.4334891301839576</v>
+        <v>0.0007837085568193005</v>
       </c>
       <c r="H14">
-        <v>0.8796406649099993</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7204821473277363</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04544025057284329</v>
+        <v>0.03895178929677812</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.099975840699599</v>
       </c>
       <c r="L14">
-        <v>0.2609022836531381</v>
+        <v>0.4661048473153642</v>
       </c>
       <c r="M14">
-        <v>1.169013421096736</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.8231223486363604</v>
+      </c>
+      <c r="O14">
+        <v>1.653577591782735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.367349895833343</v>
+        <v>4.732342553014746</v>
       </c>
       <c r="C15">
-        <v>1.21847426718864</v>
+        <v>0.5255966724749328</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05620016345150347</v>
+        <v>0.04574715351530756</v>
       </c>
       <c r="F15">
-        <v>2.267190985537837</v>
+        <v>2.588716342925125</v>
       </c>
       <c r="G15">
-        <v>0.4283747068400316</v>
+        <v>0.0007846016996224705</v>
       </c>
       <c r="H15">
-        <v>0.8704872382744782</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7141095444208645</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.04601522699986438</v>
+        <v>0.03926575800193355</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.087104705309301</v>
       </c>
       <c r="L15">
-        <v>0.2578414280176347</v>
+        <v>0.4613015216086467</v>
       </c>
       <c r="M15">
-        <v>1.155291190607095</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.8288945381193145</v>
+      </c>
+      <c r="O15">
+        <v>1.640206687248508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.073315636465452</v>
+        <v>4.422189910478153</v>
       </c>
       <c r="C16">
-        <v>1.135415941909287</v>
+        <v>0.490491816809481</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05291726374387551</v>
+        <v>0.04457428483302905</v>
       </c>
       <c r="F16">
-        <v>2.113247930352372</v>
+        <v>2.467036995134094</v>
       </c>
       <c r="G16">
-        <v>0.3996656829842777</v>
+        <v>0.0007897418616665687</v>
       </c>
       <c r="H16">
-        <v>0.8192398555751481</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6787817538326095</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04937841200454773</v>
+        <v>0.04109796533878107</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.013920129199875</v>
       </c>
       <c r="L16">
-        <v>0.2404242295450061</v>
+        <v>0.4339609325674871</v>
       </c>
       <c r="M16">
-        <v>1.077177992715704</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.8627045435915122</v>
+      </c>
+      <c r="O16">
+        <v>1.565145911184146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.894510548648896</v>
+        <v>4.233984965087245</v>
       </c>
       <c r="C17">
-        <v>1.08502211263459</v>
+        <v>0.4691799453188992</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05092172668054928</v>
+        <v>0.04386528502383236</v>
       </c>
       <c r="F17">
-        <v>2.020326789789607</v>
+        <v>2.394083486004106</v>
       </c>
       <c r="G17">
-        <v>0.3825549517641207</v>
+        <v>0.0007929163349394742</v>
       </c>
       <c r="H17">
-        <v>0.7888133682586442</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6581109798648868</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05149971439354717</v>
+        <v>0.04225026220710237</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.9695019152679265</v>
       </c>
       <c r="L17">
-        <v>0.2298416729872415</v>
+        <v>0.4173443307023206</v>
       </c>
       <c r="M17">
-        <v>1.029689942908071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.8840758281567958</v>
+      </c>
+      <c r="O17">
+        <v>1.520417674965117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.792194856665276</v>
+        <v>4.126438628129222</v>
       </c>
       <c r="C18">
-        <v>1.056224263426003</v>
+        <v>0.4569968896631167</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04978031050224985</v>
+        <v>0.04346119588151076</v>
       </c>
       <c r="F18">
-        <v>1.967399967939983</v>
+        <v>2.352709271099116</v>
       </c>
       <c r="G18">
-        <v>0.3728847739453585</v>
+        <v>0.0007947505858817354</v>
       </c>
       <c r="H18">
-        <v>0.7716601914195991</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6465666978154232</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05274014665562099</v>
+        <v>0.04292300656231873</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9441162829512422</v>
       </c>
       <c r="L18">
-        <v>0.2237895404006238</v>
+        <v>0.4078406298626618</v>
       </c>
       <c r="M18">
-        <v>1.00252146784721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.8965907287492456</v>
+      </c>
+      <c r="O18">
+        <v>1.495147409329292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.757638656134986</v>
+        <v>4.09014129015344</v>
       </c>
       <c r="C19">
-        <v>1.046504322483742</v>
+        <v>0.4528841310712153</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04939490260793633</v>
+        <v>0.04332500107775417</v>
       </c>
       <c r="F19">
-        <v>1.949565449477447</v>
+        <v>2.338798214522996</v>
       </c>
       <c r="G19">
-        <v>0.3696389090838323</v>
+        <v>0.0007953731258158687</v>
       </c>
       <c r="H19">
-        <v>0.7659098444605092</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.642715160842954</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05316353257737427</v>
+        <v>0.04315246090732217</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9355478632537739</v>
       </c>
       <c r="L19">
-        <v>0.221746080717331</v>
+        <v>0.4046317404749686</v>
       </c>
       <c r="M19">
-        <v>0.9933464519634114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.9008655079857988</v>
+      </c>
+      <c r="O19">
+        <v>1.486667092118722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.913488876759175</v>
+        <v>4.253945637634502</v>
       </c>
       <c r="C20">
-        <v>1.090366832149073</v>
+        <v>0.4714407124013746</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05113348748669466</v>
+        <v>0.04394037201313061</v>
       </c>
       <c r="F20">
-        <v>2.030163843287568</v>
+        <v>2.401788013889544</v>
       </c>
       <c r="G20">
-        <v>0.3843583941816604</v>
+        <v>0.0007925775529951493</v>
       </c>
       <c r="H20">
-        <v>0.7920158354102398</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6602752088007549</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05127177328957688</v>
+        <v>0.04212655676871613</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.9742131986705829</v>
       </c>
       <c r="L20">
-        <v>0.2309645514425256</v>
+        <v>0.4191075569381013</v>
       </c>
       <c r="M20">
-        <v>1.034729788396369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.8817775771599585</v>
+      </c>
+      <c r="O20">
+        <v>1.525131229519062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.443794197181319</v>
+        <v>4.813102034953147</v>
       </c>
       <c r="C21">
-        <v>1.240107099635054</v>
+        <v>0.5347354764712975</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05705377840852321</v>
+        <v>0.04605335041217984</v>
       </c>
       <c r="F21">
-        <v>2.307438478936575</v>
+        <v>2.620685022585491</v>
       </c>
       <c r="G21">
-        <v>0.4359527380196795</v>
+        <v>0.0007832806352105719</v>
       </c>
       <c r="H21">
-        <v>0.8840522907033659</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7235599472944685</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04516578204851029</v>
+        <v>0.03880183282618699</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.106158571960904</v>
       </c>
       <c r="L21">
-        <v>0.2623723413792902</v>
+        <v>0.4684115878129518</v>
       </c>
       <c r="M21">
-        <v>1.175603375576351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.8203677124606443</v>
+      </c>
+      <c r="O21">
+        <v>1.66001803950175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.79621022115208</v>
+        <v>5.186012878088889</v>
       </c>
       <c r="C22">
-        <v>1.340048332774415</v>
+        <v>0.576931509772578</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06098857334770003</v>
+        <v>0.04747080441883256</v>
       </c>
       <c r="F22">
-        <v>2.494135568583687</v>
+        <v>2.769753668699195</v>
       </c>
       <c r="G22">
-        <v>0.4714835044176482</v>
+        <v>0.0007772657992430876</v>
       </c>
       <c r="H22">
-        <v>0.9478438400475397</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7685061623965836</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.04137947591265112</v>
+        <v>0.03672726151345529</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.194131485796476</v>
       </c>
       <c r="L22">
-        <v>0.2832728197310246</v>
+        <v>0.5011922013713672</v>
       </c>
       <c r="M22">
-        <v>1.269262624164213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.7824107872348094</v>
+      </c>
+      <c r="O22">
+        <v>1.752868725277125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.607526809245485</v>
+        <v>4.986237732157406</v>
       </c>
       <c r="C23">
-        <v>1.2864963142178</v>
+        <v>0.5543263977446315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05888204735156322</v>
+        <v>0.04671076122046713</v>
       </c>
       <c r="F23">
-        <v>2.393945538553609</v>
+        <v>2.689602850646878</v>
       </c>
       <c r="G23">
-        <v>0.4523395284146972</v>
+        <v>0.0007804711177638476</v>
       </c>
       <c r="H23">
-        <v>0.9134353842624989</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7441625720444591</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04338034845144545</v>
+        <v>0.03782500062168026</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.147004453817374</v>
       </c>
       <c r="L23">
-        <v>0.2720802840194452</v>
+        <v>0.4836414722921916</v>
       </c>
       <c r="M23">
-        <v>1.219114026149597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.8024597182207742</v>
+      </c>
+      <c r="O23">
+        <v>1.702850279381096</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.904907286054936</v>
+        <v>4.24491938956163</v>
       </c>
       <c r="C24">
-        <v>1.087949946075724</v>
+        <v>0.4704184050803519</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05103773231638087</v>
+        <v>0.04390641424462594</v>
       </c>
       <c r="F24">
-        <v>2.025714979426638</v>
+        <v>2.398303036818774</v>
       </c>
       <c r="G24">
-        <v>0.3835425406743411</v>
+        <v>0.0007927306875608764</v>
       </c>
       <c r="H24">
-        <v>0.7905669486022049</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6592957084971829</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0513747607098245</v>
+        <v>0.04218245209789373</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9720827602433388</v>
       </c>
       <c r="L24">
-        <v>0.2304567993589259</v>
+        <v>0.4183102493163204</v>
       </c>
       <c r="M24">
-        <v>1.032450863003312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.8828159075165445</v>
+      </c>
+      <c r="O24">
+        <v>1.522998853418088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.166721242201959</v>
+        <v>3.471665413565063</v>
       </c>
       <c r="C25">
-        <v>0.8807718407287837</v>
+        <v>0.3827047223086311</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0428154535224472</v>
+        <v>0.04102174803155556</v>
       </c>
       <c r="F25">
-        <v>1.647972019548448</v>
+        <v>2.106163593052415</v>
       </c>
       <c r="G25">
-        <v>0.3157653283419819</v>
+        <v>0.0008062810699566096</v>
       </c>
       <c r="H25">
-        <v>0.6710740926228027</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5807185565747872</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06076577949535844</v>
+        <v>0.04726004023464991</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7894843684228192</v>
       </c>
       <c r="L25">
-        <v>0.1868554870403045</v>
+        <v>0.3498574617700854</v>
       </c>
       <c r="M25">
-        <v>0.8365322285420689</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.9779204706677191</v>
+      </c>
+      <c r="O25">
+        <v>1.346158054582702</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.919376232574905</v>
+        <v>0.9664318937491885</v>
       </c>
       <c r="C2">
-        <v>0.319778859250988</v>
+        <v>0.1645244705688178</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03900230059748822</v>
+        <v>0.06664137067468978</v>
       </c>
       <c r="F2">
-        <v>1.906394512537702</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0008166026632590747</v>
+        <v>0.2831967883152799</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2935687049665887</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05128231490423918</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6589050481971697</v>
+        <v>0.8283854173133136</v>
       </c>
       <c r="L2">
-        <v>0.3008123549453927</v>
+        <v>0.1478427451275337</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2046318252135535</v>
       </c>
       <c r="N2">
-        <v>1.054319275546668</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.227786482583625</v>
+        <v>1.161717279520573</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.553287203970001</v>
+        <v>0.8407938800377508</v>
       </c>
       <c r="C3">
-        <v>0.2778483082002055</v>
+        <v>0.1673968017710443</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03769208444937</v>
+        <v>0.06632392522700137</v>
       </c>
       <c r="F3">
-        <v>1.778986284491026</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008238404745557584</v>
+        <v>0.2927520136626498</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3040841446538423</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05416831055031057</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5722335483990122</v>
+        <v>0.7281212193266811</v>
       </c>
       <c r="L3">
-        <v>0.2682547787942582</v>
+        <v>0.1343546949021928</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1789099428653067</v>
       </c>
       <c r="N3">
-        <v>1.109695116805767</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.153686403972841</v>
+        <v>1.203648606226039</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.331839201923572</v>
+        <v>0.7637106987731954</v>
       </c>
       <c r="C4">
-        <v>0.25236272690438</v>
+        <v>0.169285079164684</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03691445293063111</v>
+        <v>0.06623373235790098</v>
       </c>
       <c r="F4">
-        <v>1.704224201020565</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008284125238905421</v>
+        <v>0.2994235111293939</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3110441292067634</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05601447089511957</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5197439419041885</v>
+        <v>0.6664704778182795</v>
       </c>
       <c r="L4">
-        <v>0.2485513746624122</v>
+        <v>0.1262126167865745</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1631751005179218</v>
       </c>
       <c r="N4">
-        <v>1.14536097237653</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.110837718216274</v>
+        <v>1.232146273534894</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.242338872490734</v>
+        <v>0.7323055266244296</v>
       </c>
       <c r="C5">
-        <v>0.2420300359331549</v>
+        <v>0.170085649517862</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03660405607459971</v>
+        <v>0.06622260906183897</v>
       </c>
       <c r="F5">
-        <v>1.674566120732706</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008303089823464368</v>
+        <v>0.3023374010904227</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3140039181337357</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05678478895301442</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4985135693454694</v>
+        <v>0.6413198686757937</v>
       </c>
       <c r="L5">
-        <v>0.2405877019540696</v>
+        <v>0.122927771901665</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1567756649535887</v>
       </c>
       <c r="N5">
-        <v>1.160298411502755</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.093992194820196</v>
+        <v>1.244429736398246</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.227519513284733</v>
+        <v>0.7270909103411896</v>
       </c>
       <c r="C6">
-        <v>0.2403171485830171</v>
+        <v>0.1702204534071114</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03655290008084044</v>
+        <v>0.06622229008435987</v>
       </c>
       <c r="F6">
-        <v>1.669688445439078</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008306259312075682</v>
+        <v>0.3028328374799258</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3145027631371278</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05691376848842911</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4949972723513909</v>
+        <v>0.6371418247200324</v>
       </c>
       <c r="L6">
-        <v>0.2392691204793351</v>
+        <v>0.1223842695273234</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1557137485906885</v>
       </c>
       <c r="N6">
-        <v>1.162802694366864</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.091230786847817</v>
+        <v>1.246509276480829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.330629289022113</v>
+        <v>0.7632871401501689</v>
       </c>
       <c r="C7">
-        <v>0.2522231782535869</v>
+        <v>0.1692957504255581</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03691024083742889</v>
+        <v>0.06623347947369851</v>
       </c>
       <c r="F7">
-        <v>1.703821030918007</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008284379638373769</v>
+        <v>0.2994620276923285</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3110835497024595</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05602478763868213</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5194570050781451</v>
+        <v>0.6661314057061674</v>
       </c>
       <c r="L7">
-        <v>0.2484437164203825</v>
+        <v>0.1261681846980025</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1630887469679969</v>
       </c>
       <c r="N7">
-        <v>1.145560810324092</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.110608104829829</v>
+        <v>1.232309245815912</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.792396801834514</v>
+        <v>0.9230946522294232</v>
       </c>
       <c r="C8">
-        <v>0.3052594217408284</v>
+        <v>0.1654888166085371</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0385448040566132</v>
+        <v>0.06650975001804582</v>
       </c>
       <c r="F8">
-        <v>1.861704727220413</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008190723941223291</v>
+        <v>0.2863200778868347</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.2970880553014155</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05226160502569233</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6288552487458361</v>
+        <v>0.793829304611819</v>
       </c>
       <c r="L8">
-        <v>0.2895228139283006</v>
+        <v>0.1431618505535113</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1957494927015091</v>
       </c>
       <c r="N8">
-        <v>1.073057741181692</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.201655394952866</v>
+        <v>1.175590889753209</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.729138291082563</v>
+        <v>1.23734401911932</v>
       </c>
       <c r="C9">
-        <v>0.4119477014607753</v>
+        <v>0.1590248335279298</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04197622631952669</v>
+        <v>0.06791550203025309</v>
       </c>
       <c r="F9">
-        <v>2.201962200167316</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0008016670636666187</v>
+        <v>0.2672668124038324</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2737812932167003</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04550309756603799</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8503075690704947</v>
+        <v>1.043811687728009</v>
       </c>
       <c r="L9">
-        <v>0.3726815614080579</v>
+        <v>0.1776904196958142</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2603630111843636</v>
       </c>
       <c r="N9">
-        <v>0.9448400467051101</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.403707337627992</v>
+        <v>1.087209663998323</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.443764679058802</v>
+        <v>1.469361922057516</v>
       </c>
       <c r="C10">
-        <v>0.4929343257097969</v>
+        <v>0.1549040065493656</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0446557002865422</v>
+        <v>0.06952316870091124</v>
       </c>
       <c r="F10">
-        <v>2.475443519229913</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007893807244584559</v>
+        <v>0.2578497339007981</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2593889997529431</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04096786183082735</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.019011519258669</v>
+        <v>1.227622467292548</v>
       </c>
       <c r="L10">
-        <v>0.4358645384563715</v>
+        <v>0.2039352278421376</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3083335237733493</v>
       </c>
       <c r="N10">
-        <v>0.8602967339765968</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.570313565179532</v>
+        <v>1.037669014073089</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.776453925571673</v>
+        <v>1.575306115935291</v>
       </c>
       <c r="C11">
-        <v>0.5305884150099587</v>
+        <v>0.153169895776422</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04591436276226268</v>
+        <v>0.07039056582311787</v>
       </c>
       <c r="F11">
-        <v>2.606163608893326</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007838792727526145</v>
+        <v>0.2546741721279275</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.253483435388155</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.03901169879429744</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.097512161311428</v>
+        <v>1.311374437366169</v>
       </c>
       <c r="L11">
-        <v>0.4651855600633894</v>
+        <v>0.2160986005589791</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3303014972138527</v>
       </c>
       <c r="N11">
-        <v>0.8242232684401856</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.651014401618895</v>
+        <v>1.018817634156548</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.903701453687972</v>
+        <v>1.615494207090791</v>
       </c>
       <c r="C12">
-        <v>0.5449872590955351</v>
+        <v>0.152533802881166</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04639720522891366</v>
+        <v>0.07073957387423135</v>
       </c>
       <c r="F12">
-        <v>2.656684474265859</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007818066781874303</v>
+        <v>0.253641151998302</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2513437697379786</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.03828767827252477</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.127533047076412</v>
+        <v>1.343117134884665</v>
       </c>
       <c r="L12">
-        <v>0.4763833951446657</v>
+        <v>0.2207397514041247</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3386443403957031</v>
       </c>
       <c r="N12">
-        <v>0.8109340455416998</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.682370877129074</v>
+        <v>1.012239573498931</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.876237194300586</v>
+        <v>1.606835698046837</v>
       </c>
       <c r="C13">
-        <v>0.5418795817746229</v>
+        <v>0.1526698754779403</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04629293147346658</v>
+        <v>0.07066347891127478</v>
       </c>
       <c r="F13">
-        <v>2.645756614353871</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007822526061160106</v>
+        <v>0.2538559252801917</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2518002140585125</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.03844284097019113</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.121053700852855</v>
+        <v>1.336279411288558</v>
       </c>
       <c r="L13">
-        <v>0.4739673395644388</v>
+        <v>0.219738585897133</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3368464393575152</v>
       </c>
       <c r="N13">
-        <v>0.8137791363138902</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.67558070451885</v>
+        <v>1.013630837986682</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.786896241365071</v>
+        <v>1.578610952837892</v>
       </c>
       <c r="C14">
-        <v>0.5317700667656595</v>
+        <v>0.1531171494038617</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04595395888152964</v>
+        <v>0.07041886140646625</v>
       </c>
       <c r="F14">
-        <v>2.610298860627324</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007837085568193005</v>
+        <v>0.2545857278362575</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2533054408479316</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.03895178929677812</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.099975840699599</v>
+        <v>1.313985325325319</v>
       </c>
       <c r="L14">
-        <v>0.4661048473153642</v>
+        <v>0.2164797094188486</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3309873677172845</v>
       </c>
       <c r="N14">
-        <v>0.8231223486363604</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.653577591782735</v>
+        <v>1.018265036711298</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.732342553014746</v>
+        <v>1.561331882292819</v>
       </c>
       <c r="C15">
-        <v>0.5255966724749328</v>
+        <v>0.1533938088835924</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04574715351530756</v>
+        <v>0.07027173145191057</v>
       </c>
       <c r="F15">
-        <v>2.588716342925125</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.0007846016996224705</v>
+        <v>0.255055137159907</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2542401563028491</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.03926575800193355</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.087104705309301</v>
+        <v>1.300333406233165</v>
       </c>
       <c r="L15">
-        <v>0.4613015216086467</v>
+        <v>0.2144882185267107</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3274017432953968</v>
       </c>
       <c r="N15">
-        <v>0.8288945381193145</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.640206687248508</v>
+        <v>1.021177558635969</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.422189910478153</v>
+        <v>1.462447244075292</v>
       </c>
       <c r="C16">
-        <v>0.490491816809481</v>
+        <v>0.1550201932751989</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04457428483302905</v>
+        <v>0.06946930256216888</v>
       </c>
       <c r="F16">
-        <v>2.467036995134094</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.0007897418616665687</v>
+        <v>0.2580804180372951</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2597882212220668</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.04109796533878107</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.013920129199875</v>
+        <v>1.222152489935638</v>
       </c>
       <c r="L16">
-        <v>0.4339609325674871</v>
+        <v>0.2031450809255659</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3069010589922883</v>
       </c>
       <c r="N16">
-        <v>0.8627045435915122</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.565145911184146</v>
+        <v>1.038977725477821</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.233984965087245</v>
+        <v>1.401895016004289</v>
       </c>
       <c r="C17">
-        <v>0.4691799453188992</v>
+        <v>0.1560541686079588</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04386528502383236</v>
+        <v>0.0690125663061476</v>
       </c>
       <c r="F17">
-        <v>2.394083486004106</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007929163349394742</v>
+        <v>0.260227210069381</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2633591384840486</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.04225026220710237</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9695019152679265</v>
+        <v>1.17423135935266</v>
       </c>
       <c r="L17">
-        <v>0.4173443307023206</v>
+        <v>0.1962459123013929</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2943640489984887</v>
       </c>
       <c r="N17">
-        <v>0.8840758281567958</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.520417674965117</v>
+        <v>1.050862591835397</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.126438628129222</v>
+        <v>1.367103673871185</v>
       </c>
       <c r="C18">
-        <v>0.4569968896631167</v>
+        <v>0.1566620822540159</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04346119588151076</v>
+        <v>0.06876260880262741</v>
       </c>
       <c r="F18">
-        <v>2.352709271099116</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007947505858817354</v>
+        <v>0.2615656672377185</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2654731446719865</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.04292300656231873</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9441162829512422</v>
+        <v>1.146680625754186</v>
       </c>
       <c r="L18">
-        <v>0.4078406298626618</v>
+        <v>0.192298640214716</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2871666346075372</v>
       </c>
       <c r="N18">
-        <v>0.8965907287492456</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.495147409329292</v>
+        <v>1.0580433528703</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.09014129015344</v>
+        <v>1.355329871510605</v>
       </c>
       <c r="C19">
-        <v>0.4528841310712153</v>
+        <v>0.156870167019612</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04332500107775417</v>
+        <v>0.06868013753237001</v>
       </c>
       <c r="F19">
-        <v>2.338798214522996</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007953731258158687</v>
+        <v>0.2620363541416779</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2661991051928823</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.04315246090732217</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9355478632537739</v>
+        <v>1.137354282881716</v>
       </c>
       <c r="L19">
-        <v>0.4046317404749686</v>
+        <v>0.1909656749115385</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2847319496199248</v>
       </c>
       <c r="N19">
-        <v>0.9008655079857988</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.486667092118722</v>
+        <v>1.060532967380055</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.253945637634502</v>
+        <v>1.40833702109262</v>
       </c>
       <c r="C20">
-        <v>0.4714407124013746</v>
+        <v>0.1559427315148625</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.04394037201313061</v>
+        <v>0.06905986067441283</v>
       </c>
       <c r="F20">
-        <v>2.401788013889544</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007925775529951493</v>
+        <v>0.2599878785838854</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2629727562447357</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.04212655676871613</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9742131986705829</v>
+        <v>1.179331322211908</v>
       </c>
       <c r="L20">
-        <v>0.4191075569381013</v>
+        <v>0.1969781524139904</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2956972120144599</v>
       </c>
       <c r="N20">
-        <v>0.8817775771599585</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.525131229519062</v>
+        <v>1.049561515357823</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.813102034953147</v>
+        <v>1.586899262801893</v>
       </c>
       <c r="C21">
-        <v>0.5347354764712975</v>
+        <v>0.1529852126480122</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04605335041217984</v>
+        <v>0.07049014588678659</v>
       </c>
       <c r="F21">
-        <v>2.620685022585491</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007832806352105719</v>
+        <v>0.2543666833640472</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2528606600870233</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.03880183282618699</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.106158571960904</v>
+        <v>1.320532820573987</v>
       </c>
       <c r="L21">
-        <v>0.4684115878129518</v>
+        <v>0.2174359428801154</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3327076410081915</v>
       </c>
       <c r="N21">
-        <v>0.8203677124606443</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.66001803950175</v>
+        <v>1.016888393550104</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.186012878088889</v>
+        <v>1.704010301506173</v>
       </c>
       <c r="C22">
-        <v>0.576931509772578</v>
+        <v>0.1511724318520109</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04747080441883256</v>
+        <v>0.07154515702693587</v>
       </c>
       <c r="F22">
-        <v>2.769753668699195</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007772657992430876</v>
+        <v>0.251686003572857</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2468173635783302</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03672726151345529</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.194131485796476</v>
+        <v>1.412981511943002</v>
       </c>
       <c r="L22">
-        <v>0.5011922013713672</v>
+        <v>0.2310126054382096</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3570378372520722</v>
       </c>
       <c r="N22">
-        <v>0.7824107872348094</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.752868725277125</v>
+        <v>0.998817503780657</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.986237732157406</v>
+        <v>1.641464181925244</v>
       </c>
       <c r="C23">
-        <v>0.5543263977446315</v>
+        <v>0.1521288256019986</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04671076122046713</v>
+        <v>0.07097073858994918</v>
       </c>
       <c r="F23">
-        <v>2.689602850646878</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007804711177638476</v>
+        <v>0.2530223590898188</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2499895172733488</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.03782500062168026</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.147004453817374</v>
+        <v>1.363621924117723</v>
       </c>
       <c r="L23">
-        <v>0.4836414722921916</v>
+        <v>0.2237466139475544</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3440383191187451</v>
       </c>
       <c r="N23">
-        <v>0.8024597182207742</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.702850279381096</v>
+        <v>1.008151273467078</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.24491938956163</v>
+        <v>1.405424526270764</v>
       </c>
       <c r="C24">
-        <v>0.4704184050803519</v>
+        <v>0.1559930703048096</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04390641424462594</v>
+        <v>0.06903843963592671</v>
       </c>
       <c r="F24">
-        <v>2.398303036818774</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007927306875608764</v>
+        <v>0.2600957564293296</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2631472498632306</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.04218245209789373</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9720827602433388</v>
+        <v>1.177025630351665</v>
       </c>
       <c r="L24">
-        <v>0.4183102493163204</v>
+        <v>0.1966470472200115</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2950944572251615</v>
       </c>
       <c r="N24">
-        <v>0.8828159075165445</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.522998853418088</v>
+        <v>1.050148650410293</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.471665413565063</v>
+        <v>1.152177746417379</v>
       </c>
       <c r="C25">
-        <v>0.3827047223086311</v>
+        <v>0.1606645266081941</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04102174803155556</v>
+        <v>0.06743788654794969</v>
       </c>
       <c r="F25">
-        <v>2.106163593052415</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0008062810699566096</v>
+        <v>0.271653452602969</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2796225417786502</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.04726004023464991</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7894843684228192</v>
+        <v>0.976190262289947</v>
       </c>
       <c r="L25">
-        <v>0.3498574617700854</v>
+        <v>0.1682063758796488</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.24280742556601</v>
       </c>
       <c r="N25">
-        <v>0.9779204706677191</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.346158054582702</v>
+        <v>1.108526986354974</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9664318937491885</v>
+        <v>0.4491677326059005</v>
       </c>
       <c r="C2">
-        <v>0.1645244705688178</v>
+        <v>0.2965102684747443</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06664137067468978</v>
+        <v>0.1539423081504783</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.2831967883152799</v>
+        <v>0.6457261047731606</v>
       </c>
       <c r="H2">
-        <v>0.2935687049665887</v>
+        <v>0.7807710158754659</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8283854173133136</v>
+        <v>0.2559141323884546</v>
       </c>
       <c r="L2">
-        <v>0.1478427451275337</v>
+        <v>0.1902078750966965</v>
       </c>
       <c r="M2">
-        <v>0.2046318252135535</v>
+        <v>0.1363245693562938</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.161717279520573</v>
+        <v>2.843218607440889</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8407938800377508</v>
+        <v>0.4112595272337103</v>
       </c>
       <c r="C3">
-        <v>0.1673968017710443</v>
+        <v>0.2981528487779066</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06632392522700137</v>
+        <v>0.1548888852018599</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.2927520136626498</v>
+        <v>0.6540998605119697</v>
       </c>
       <c r="H3">
-        <v>0.3040841446538423</v>
+        <v>0.7883942387437131</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7281212193266811</v>
+        <v>0.2232897513557788</v>
       </c>
       <c r="L3">
-        <v>0.1343546949021928</v>
+        <v>0.1875680730085634</v>
       </c>
       <c r="M3">
-        <v>0.1789099428653067</v>
+        <v>0.1291374247715247</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.203648606226039</v>
+        <v>2.876703892095122</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7637106987731954</v>
+        <v>0.3880274305883518</v>
       </c>
       <c r="C4">
-        <v>0.169285079164684</v>
+        <v>0.2992365000541177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06623373235790098</v>
+        <v>0.155538476895881</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.2994235111293939</v>
+        <v>0.6596516169842843</v>
       </c>
       <c r="H4">
-        <v>0.3110441292067634</v>
+        <v>0.7933873130226488</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6664704778182795</v>
+        <v>0.2031800005366193</v>
       </c>
       <c r="L4">
-        <v>0.1262126167865745</v>
+        <v>0.186035923864786</v>
       </c>
       <c r="M4">
-        <v>0.1631751005179218</v>
+        <v>0.1247639626971129</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.232146273534894</v>
+        <v>2.898779997896042</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7323055266244296</v>
+        <v>0.378571864472633</v>
       </c>
       <c r="C5">
-        <v>0.170085649517862</v>
+        <v>0.2996970296483141</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06622260906183897</v>
+        <v>0.1558204126056708</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.3023374010904227</v>
+        <v>0.662017116340472</v>
       </c>
       <c r="H5">
-        <v>0.3140039181337357</v>
+        <v>0.7955006381557794</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6413198686757937</v>
+        <v>0.1949660022575301</v>
       </c>
       <c r="L5">
-        <v>0.122927771901665</v>
+        <v>0.1854339437730914</v>
       </c>
       <c r="M5">
-        <v>0.1567756649535887</v>
+        <v>0.1229918102964085</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.244429736398246</v>
+        <v>2.908157419794641</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7270909103411896</v>
+        <v>0.3770025027449435</v>
       </c>
       <c r="C6">
-        <v>0.1702204534071114</v>
+        <v>0.2997746451605146</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06622229008435987</v>
+        <v>0.1558682686965813</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.3028328374799258</v>
+        <v>0.6624161322200379</v>
       </c>
       <c r="H6">
-        <v>0.3145027631371278</v>
+        <v>0.7958563034666639</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6371418247200324</v>
+        <v>0.1936009364676607</v>
       </c>
       <c r="L6">
-        <v>0.1223842695273234</v>
+        <v>0.1853353396406874</v>
       </c>
       <c r="M6">
-        <v>0.1557137485906885</v>
+        <v>0.1226981580865463</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.246509276480829</v>
+        <v>2.909737559403176</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7632871401501689</v>
+        <v>0.3878998611881741</v>
       </c>
       <c r="C7">
-        <v>0.1692957504255581</v>
+        <v>0.2992426341944459</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06623347947369851</v>
+        <v>0.1555422094159837</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2994620276923285</v>
+        <v>0.6596831014910549</v>
       </c>
       <c r="H7">
-        <v>0.3110835497024595</v>
+        <v>0.7934154957147399</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6661314057061674</v>
+        <v>0.2030693003154909</v>
       </c>
       <c r="L7">
-        <v>0.1261681846980025</v>
+        <v>0.1860277146173459</v>
       </c>
       <c r="M7">
-        <v>0.1630887469679969</v>
+        <v>0.1247400218717232</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.232309245815912</v>
+        <v>2.898904921479101</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9230946522294232</v>
+        <v>0.4360883307625159</v>
       </c>
       <c r="C8">
-        <v>0.1654888166085371</v>
+        <v>0.2970610720525855</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06650975001804582</v>
+        <v>0.1542545084207454</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.2863200778868347</v>
+        <v>0.648528205371349</v>
       </c>
       <c r="H8">
-        <v>0.2970880553014155</v>
+        <v>0.7833347013509737</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.793829304611819</v>
+        <v>0.2446818149710452</v>
       </c>
       <c r="L8">
-        <v>0.1431618505535113</v>
+        <v>0.1892793076636465</v>
       </c>
       <c r="M8">
-        <v>0.1957494927015091</v>
+        <v>0.1338383323804564</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.175590889753209</v>
+        <v>2.854449699404427</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.23734401911932</v>
+        <v>0.5309058033286647</v>
       </c>
       <c r="C9">
-        <v>0.1590248335279298</v>
+        <v>0.293376784608725</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06791550203025309</v>
+        <v>0.1522709269501199</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2672668124038324</v>
+        <v>0.6299104185462738</v>
       </c>
       <c r="H9">
-        <v>0.2737812932167003</v>
+        <v>0.7660423210792686</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.043811687728009</v>
+        <v>0.3256419666195143</v>
       </c>
       <c r="L9">
-        <v>0.1776904196958142</v>
+        <v>0.1963565246354904</v>
       </c>
       <c r="M9">
-        <v>0.2603630111843636</v>
+        <v>0.1519879820752728</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.087209663998323</v>
+        <v>2.779300746289962</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.469361922057516</v>
+        <v>0.6007344097443763</v>
       </c>
       <c r="C10">
-        <v>0.1549040065493656</v>
+        <v>0.2910290054990838</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06952316870091124</v>
+        <v>0.1511424186074066</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2578497339007981</v>
+        <v>0.6182199288327936</v>
       </c>
       <c r="H10">
-        <v>0.2593889997529431</v>
+        <v>0.7548432928648694</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.227622467292548</v>
+        <v>0.384709501897504</v>
       </c>
       <c r="L10">
-        <v>0.2039352278421376</v>
+        <v>0.2019802262652775</v>
       </c>
       <c r="M10">
-        <v>0.3083335237733493</v>
+        <v>0.1655045000448681</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.037669014073089</v>
+        <v>2.731418862944892</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.575306115935291</v>
+        <v>0.6325316513652979</v>
       </c>
       <c r="C11">
-        <v>0.153169895776422</v>
+        <v>0.2900382991092556</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07039056582311787</v>
+        <v>0.1507001531562437</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2546741721279275</v>
+        <v>0.6133338307640557</v>
       </c>
       <c r="H11">
-        <v>0.253483435388155</v>
+        <v>0.7500747091244335</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.311374437366169</v>
+        <v>0.41148654997329</v>
       </c>
       <c r="L11">
-        <v>0.2160986005589791</v>
+        <v>0.2046300462054518</v>
       </c>
       <c r="M11">
-        <v>0.3303014972138527</v>
+        <v>0.1716918995376773</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.018817634156548</v>
+        <v>2.711227329031473</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.615494207090791</v>
+        <v>0.6445763886262625</v>
       </c>
       <c r="C12">
-        <v>0.152533802881166</v>
+        <v>0.2896742138589445</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07073957387423135</v>
+        <v>0.1505428790020673</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.253641151998302</v>
+        <v>0.6115457601356695</v>
       </c>
       <c r="H12">
-        <v>0.2513437697379786</v>
+        <v>0.7483157822657276</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.343117134884665</v>
+        <v>0.4216124410123427</v>
       </c>
       <c r="L12">
-        <v>0.2207397514041247</v>
+        <v>0.2056465622964652</v>
       </c>
       <c r="M12">
-        <v>0.3386443403957031</v>
+        <v>0.1740403409366849</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.012239573498931</v>
+        <v>2.703809987747135</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.606835698046837</v>
+        <v>0.6419821816416516</v>
       </c>
       <c r="C13">
-        <v>0.1526698754779403</v>
+        <v>0.289752134309424</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07066347891127478</v>
+        <v>0.1505762974071665</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2538559252801917</v>
+        <v>0.611928086129069</v>
       </c>
       <c r="H13">
-        <v>0.2518002140585125</v>
+        <v>0.7486925162821123</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.336279411288558</v>
+        <v>0.4194322814059888</v>
       </c>
       <c r="L13">
-        <v>0.219738585897133</v>
+        <v>0.2054270566187597</v>
       </c>
       <c r="M13">
-        <v>0.3368464393575152</v>
+        <v>0.1735343239949856</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.013630837986682</v>
+        <v>2.705397269580857</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.578610952837892</v>
+        <v>0.6335225071514117</v>
       </c>
       <c r="C14">
-        <v>0.1531171494038617</v>
+        <v>0.2900081239093097</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07041886140646625</v>
+        <v>0.1506870097746216</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2545857278362575</v>
+        <v>0.6131854783497843</v>
       </c>
       <c r="H14">
-        <v>0.2533054408479316</v>
+        <v>0.7499290627529547</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.313985325325319</v>
+        <v>0.4123198971239219</v>
       </c>
       <c r="L14">
-        <v>0.2164797094188486</v>
+        <v>0.2047134137806239</v>
       </c>
       <c r="M14">
-        <v>0.3309873677172845</v>
+        <v>0.1718849997257763</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.018265036711298</v>
+        <v>2.710612514812595</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.561331882292819</v>
+        <v>0.6283411858872228</v>
       </c>
       <c r="C15">
-        <v>0.1533938088835924</v>
+        <v>0.2901663657811397</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07027173145191057</v>
+        <v>0.1507561522753349</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.255055137159907</v>
+        <v>0.6139637683393175</v>
       </c>
       <c r="H15">
-        <v>0.2542401563028491</v>
+        <v>0.750692581140882</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.300333406233165</v>
+        <v>0.4079615155563374</v>
       </c>
       <c r="L15">
-        <v>0.2144882185267107</v>
+        <v>0.204277988820337</v>
       </c>
       <c r="M15">
-        <v>0.3274017432953968</v>
+        <v>0.1708754406688442</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.021177558635969</v>
+        <v>2.713836796314396</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.462447244075292</v>
+        <v>0.5986569604978911</v>
       </c>
       <c r="C16">
-        <v>0.1550201932751989</v>
+        <v>0.2910953024543517</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06946930256216888</v>
+        <v>0.1511727505250384</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2580804180372951</v>
+        <v>0.6185479452897624</v>
       </c>
       <c r="H16">
-        <v>0.2597882212220668</v>
+        <v>0.7551614863315308</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.222152489935638</v>
+        <v>0.3829576336134721</v>
       </c>
       <c r="L16">
-        <v>0.2031450809255659</v>
+        <v>0.201808890012444</v>
       </c>
       <c r="M16">
-        <v>0.3069010589922883</v>
+        <v>0.1651009039575584</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.038977725477821</v>
+        <v>2.732770433195327</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.401895016004289</v>
+        <v>0.5804542614839363</v>
       </c>
       <c r="C17">
-        <v>0.1560541686079588</v>
+        <v>0.2916849450180052</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0690125663061476</v>
+        <v>0.1514465146800923</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.260227210069381</v>
+        <v>0.6214708777298483</v>
       </c>
       <c r="H17">
-        <v>0.2633591384840486</v>
+        <v>0.757986464653257</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.17423135935266</v>
+        <v>0.3675942879428931</v>
       </c>
       <c r="L17">
-        <v>0.1962459123013929</v>
+        <v>0.2003175736286096</v>
       </c>
       <c r="M17">
-        <v>0.2943640489984887</v>
+        <v>0.1615682076187142</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.050862591835397</v>
+        <v>2.744792951764566</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.367103673871185</v>
+        <v>0.5699875949793238</v>
       </c>
       <c r="C18">
-        <v>0.1566620822540159</v>
+        <v>0.2920313711838318</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06876260880262741</v>
+        <v>0.1516106700248194</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2615656672377185</v>
+        <v>0.6231927253789138</v>
       </c>
       <c r="H18">
-        <v>0.2654731446719865</v>
+        <v>0.7596419956566436</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.146680625754186</v>
+        <v>0.3587489741550201</v>
       </c>
       <c r="L18">
-        <v>0.192298640214716</v>
+        <v>0.1994684317204616</v>
       </c>
       <c r="M18">
-        <v>0.2871666346075372</v>
+        <v>0.1595399428330495</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.0580433528703</v>
+        <v>2.751857655966077</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.355329871510605</v>
+        <v>0.5664443079108992</v>
       </c>
       <c r="C19">
-        <v>0.156870167019612</v>
+        <v>0.2921499166947612</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06868013753237001</v>
+        <v>0.1516674004706076</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2620363541416779</v>
+        <v>0.6237826935837276</v>
       </c>
       <c r="H19">
-        <v>0.2661991051928823</v>
+        <v>0.7602078000343226</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.137354282881716</v>
+        <v>0.3557526232853547</v>
       </c>
       <c r="L19">
-        <v>0.1909656749115385</v>
+        <v>0.1991824104727442</v>
       </c>
       <c r="M19">
-        <v>0.2847319496199248</v>
+        <v>0.1588538385574978</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.060532967380055</v>
+        <v>2.754275346577117</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.40833702109262</v>
+        <v>0.5823916603497423</v>
       </c>
       <c r="C20">
-        <v>0.1559427315148625</v>
+        <v>0.291621423489012</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06905986067441283</v>
+        <v>0.1514166794295999</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2599878785838854</v>
+        <v>0.6211555184939499</v>
       </c>
       <c r="H20">
-        <v>0.2629727562447357</v>
+        <v>0.7576825660524449</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.179331322211908</v>
+        <v>0.3692306496312767</v>
       </c>
       <c r="L20">
-        <v>0.1969781524139904</v>
+        <v>0.2004754348544679</v>
       </c>
       <c r="M20">
-        <v>0.2956972120144599</v>
+        <v>0.16194389265479</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.049561515357823</v>
+        <v>2.743497643258763</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.586899262801893</v>
+        <v>0.6360072212817158</v>
       </c>
       <c r="C21">
-        <v>0.1529852126480122</v>
+        <v>0.289932633363442</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07049014588678659</v>
+        <v>0.1506542141578997</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2543666833640472</v>
+        <v>0.6128144634158303</v>
       </c>
       <c r="H21">
-        <v>0.2528606600870233</v>
+        <v>0.7495645883277575</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.320532820573987</v>
+        <v>0.4144093615114741</v>
       </c>
       <c r="L21">
-        <v>0.2174359428801154</v>
+        <v>0.2049226734547176</v>
       </c>
       <c r="M21">
-        <v>0.3327076410081915</v>
+        <v>0.172369300703501</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.016888393550104</v>
+        <v>2.709074461832728</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.704010301506173</v>
+        <v>0.6710699529677413</v>
       </c>
       <c r="C22">
-        <v>0.1511724318520109</v>
+        <v>0.2888934378908701</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07154515702693587</v>
+        <v>0.1502153549968099</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.251686003572857</v>
+        <v>0.6077256182077377</v>
       </c>
       <c r="H22">
-        <v>0.2468173635783302</v>
+        <v>0.744531979975541</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.412981511943002</v>
+        <v>0.4438543995978819</v>
       </c>
       <c r="L22">
-        <v>0.2310126054382096</v>
+        <v>0.2079054431591771</v>
       </c>
       <c r="M22">
-        <v>0.3570378372520722</v>
+        <v>0.1792143557271828</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.998817503780657</v>
+        <v>2.687910319433456</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.641464181925244</v>
+        <v>0.652354566415454</v>
       </c>
       <c r="C23">
-        <v>0.1521288256019986</v>
+        <v>0.2894421861079053</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07097073858994918</v>
+        <v>0.1504441493519586</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2530223590898188</v>
+        <v>0.6104084365150513</v>
       </c>
       <c r="H23">
-        <v>0.2499895172733488</v>
+        <v>0.7471930128518594</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.363621924117723</v>
+        <v>0.4281467208511742</v>
       </c>
       <c r="L23">
-        <v>0.2237466139475544</v>
+        <v>0.2063065334171057</v>
       </c>
       <c r="M23">
-        <v>0.3440383191187451</v>
+        <v>0.1755581939932895</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.008151273467078</v>
+        <v>2.699083985366869</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.405424526270764</v>
+        <v>0.5815157675359615</v>
       </c>
       <c r="C24">
-        <v>0.1559930703048096</v>
+        <v>0.2916501184173512</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06903843963592671</v>
+        <v>0.151430146873734</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2600957564293296</v>
+        <v>0.6212979634065121</v>
       </c>
       <c r="H24">
-        <v>0.2631472498632306</v>
+        <v>0.7578198607568538</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.177025630351665</v>
+        <v>0.3684908900929145</v>
       </c>
       <c r="L24">
-        <v>0.1966470472200115</v>
+        <v>0.2004040401351688</v>
       </c>
       <c r="M24">
-        <v>0.2950944572251615</v>
+        <v>0.1617740369369329</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.050148650410293</v>
+        <v>2.744082776287811</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.152177746417379</v>
+        <v>0.5052238972379257</v>
       </c>
       <c r="C25">
-        <v>0.1606645266081941</v>
+        <v>0.2943102182448456</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06743788654794969</v>
+        <v>0.1527496954137533</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.271653452602969</v>
+        <v>0.6345980877416295</v>
       </c>
       <c r="H25">
-        <v>0.2796225417786502</v>
+        <v>0.7704556834763565</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.976190262289947</v>
+        <v>0.303811160104317</v>
       </c>
       <c r="L25">
-        <v>0.1682063758796488</v>
+        <v>0.194367248016512</v>
       </c>
       <c r="M25">
-        <v>0.24280742556601</v>
+        <v>0.1470456520947252</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.108526986354974</v>
+        <v>2.798343128562706</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4491677326059005</v>
+        <v>0.9664318937494158</v>
       </c>
       <c r="C2">
-        <v>0.2965102684747443</v>
+        <v>0.1645244705688143</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1539423081504783</v>
+        <v>0.06664137067468978</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.6457261047731606</v>
+        <v>0.2831967883152302</v>
       </c>
       <c r="H2">
-        <v>0.7807710158754659</v>
+        <v>0.2935687049665887</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2559141323884546</v>
+        <v>0.8283854173133989</v>
       </c>
       <c r="L2">
-        <v>0.1902078750966965</v>
+        <v>0.1478427451275053</v>
       </c>
       <c r="M2">
-        <v>0.1363245693562938</v>
+        <v>0.2046318252135748</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.843218607440889</v>
+        <v>1.161717279520587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4112595272337103</v>
+        <v>0.8407938800377792</v>
       </c>
       <c r="C3">
-        <v>0.2981528487779066</v>
+        <v>0.1673968017712752</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1548888852018599</v>
+        <v>0.06632392522698716</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.6540998605119697</v>
+        <v>0.2927520136626356</v>
       </c>
       <c r="H3">
-        <v>0.7883942387437131</v>
+        <v>0.3040841446538352</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2232897513557788</v>
+        <v>0.7281212193267095</v>
       </c>
       <c r="L3">
-        <v>0.1875680730085634</v>
+        <v>0.1343546949022283</v>
       </c>
       <c r="M3">
-        <v>0.1291374247715247</v>
+        <v>0.1789099428653032</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.876703892095122</v>
+        <v>1.203648606226011</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3880274305883518</v>
+        <v>0.7637106987730533</v>
       </c>
       <c r="C4">
-        <v>0.2992365000541177</v>
+        <v>0.1692850791646876</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.155538476895881</v>
+        <v>0.06623373235793295</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6596516169842843</v>
+        <v>0.2994235111294508</v>
       </c>
       <c r="H4">
-        <v>0.7933873130226488</v>
+        <v>0.3110441292067634</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2031800005366193</v>
+        <v>0.6664704778183079</v>
       </c>
       <c r="L4">
-        <v>0.186035923864786</v>
+        <v>0.1262126167865034</v>
       </c>
       <c r="M4">
-        <v>0.1247639626971129</v>
+        <v>0.1631751005179218</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.898779997896042</v>
+        <v>1.232146273534951</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.378571864472633</v>
+        <v>0.7323055266243443</v>
       </c>
       <c r="C5">
-        <v>0.2996970296483141</v>
+        <v>0.1700856495180574</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1558204126056708</v>
+        <v>0.06622260906180877</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.662017116340472</v>
+        <v>0.3023374010904156</v>
       </c>
       <c r="H5">
-        <v>0.7955006381557794</v>
+        <v>0.3140039181337393</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1949660022575301</v>
+        <v>0.6413198686757937</v>
       </c>
       <c r="L5">
-        <v>0.1854339437730914</v>
+        <v>0.1229277719017006</v>
       </c>
       <c r="M5">
-        <v>0.1229918102964085</v>
+        <v>0.1567756649535959</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.908157419794641</v>
+        <v>1.244429736398239</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3770025027449435</v>
+        <v>0.7270909103410759</v>
       </c>
       <c r="C6">
-        <v>0.2997746451605146</v>
+        <v>0.170220453407353</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1558682686965813</v>
+        <v>0.06622229008435987</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.6624161322200379</v>
+        <v>0.3028328374799258</v>
       </c>
       <c r="H6">
-        <v>0.7958563034666639</v>
+        <v>0.3145027631371242</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1936009364676607</v>
+        <v>0.6371418247200324</v>
       </c>
       <c r="L6">
-        <v>0.1853353396406874</v>
+        <v>0.1223842695273873</v>
       </c>
       <c r="M6">
-        <v>0.1226981580865463</v>
+        <v>0.1557137485906743</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.909737559403176</v>
+        <v>1.246509276480829</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3878998611881741</v>
+        <v>0.7632871401501689</v>
       </c>
       <c r="C7">
-        <v>0.2992426341944459</v>
+        <v>0.1692957504252739</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1555422094159837</v>
+        <v>0.06623347947366831</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6596831014910549</v>
+        <v>0.299462027692396</v>
       </c>
       <c r="H7">
-        <v>0.7934154957147399</v>
+        <v>0.3110835497025732</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2030693003154909</v>
+        <v>0.6661314057063663</v>
       </c>
       <c r="L7">
-        <v>0.1860277146173459</v>
+        <v>0.1261681846979599</v>
       </c>
       <c r="M7">
-        <v>0.1247400218717232</v>
+        <v>0.1630887469679969</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.898904921479101</v>
+        <v>1.232309245815927</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4360883307625159</v>
+        <v>0.9230946522294516</v>
       </c>
       <c r="C8">
-        <v>0.2970610720525855</v>
+        <v>0.165488816608601</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1542545084207454</v>
+        <v>0.0665097500180778</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.648528205371349</v>
+        <v>0.2863200778868205</v>
       </c>
       <c r="H8">
-        <v>0.7833347013509737</v>
+        <v>0.2970880553014226</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2446818149710452</v>
+        <v>0.7938293046118758</v>
       </c>
       <c r="L8">
-        <v>0.1892793076636465</v>
+        <v>0.1431618505535042</v>
       </c>
       <c r="M8">
-        <v>0.1338383323804564</v>
+        <v>0.1957494927014984</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.854449699404427</v>
+        <v>1.175590889753209</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5309058033286647</v>
+        <v>1.23734401911932</v>
       </c>
       <c r="C9">
-        <v>0.293376784608725</v>
+        <v>0.1590248335279369</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1522709269501199</v>
+        <v>0.0679155020302602</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.6299104185462738</v>
+        <v>0.2672668124038822</v>
       </c>
       <c r="H9">
-        <v>0.7660423210792686</v>
+        <v>0.2737812932167074</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3256419666195143</v>
+        <v>1.043811687727953</v>
       </c>
       <c r="L9">
-        <v>0.1963565246354904</v>
+        <v>0.1776904196958142</v>
       </c>
       <c r="M9">
-        <v>0.1519879820752728</v>
+        <v>0.2603630111843529</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.779300746289962</v>
+        <v>1.087209663998252</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6007344097443763</v>
+        <v>1.469361922057487</v>
       </c>
       <c r="C10">
-        <v>0.2910290054990838</v>
+        <v>0.1549040065493159</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1511424186074066</v>
+        <v>0.06952316870087216</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.6182199288327936</v>
+        <v>0.2578497339007271</v>
       </c>
       <c r="H10">
-        <v>0.7548432928648694</v>
+        <v>0.2593889997529502</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.384709501897504</v>
+        <v>1.227622467292576</v>
       </c>
       <c r="L10">
-        <v>0.2019802262652775</v>
+        <v>0.2039352278422371</v>
       </c>
       <c r="M10">
-        <v>0.1655045000448681</v>
+        <v>0.3083335237733564</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.731418862944892</v>
+        <v>1.037669014073074</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6325316513652979</v>
+        <v>1.575306115935319</v>
       </c>
       <c r="C11">
-        <v>0.2900382991092556</v>
+        <v>0.1531698957769123</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1507001531562437</v>
+        <v>0.0703905658231001</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6133338307640557</v>
+        <v>0.2546741721279062</v>
       </c>
       <c r="H11">
-        <v>0.7500747091244335</v>
+        <v>0.2534834353882687</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.41148654997329</v>
+        <v>1.311374437366169</v>
       </c>
       <c r="L11">
-        <v>0.2046300462054518</v>
+        <v>0.2160986005589223</v>
       </c>
       <c r="M11">
-        <v>0.1716918995376773</v>
+        <v>0.3303014972138172</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.711227329031473</v>
+        <v>1.018817634156548</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6445763886262625</v>
+        <v>1.615494207090819</v>
       </c>
       <c r="C12">
-        <v>0.2896742138589445</v>
+        <v>0.1525338028811092</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1505428790020673</v>
+        <v>0.07073957387424912</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.6115457601356695</v>
+        <v>0.2536411519982238</v>
       </c>
       <c r="H12">
-        <v>0.7483157822657276</v>
+        <v>0.2513437697379715</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4216124410123427</v>
+        <v>1.343117134884665</v>
       </c>
       <c r="L12">
-        <v>0.2056465622964652</v>
+        <v>0.2207397514041816</v>
       </c>
       <c r="M12">
-        <v>0.1740403409366849</v>
+        <v>0.3386443403957173</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.703809987747135</v>
+        <v>1.012239573498903</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6419821816416516</v>
+        <v>1.60683569804678</v>
       </c>
       <c r="C13">
-        <v>0.289752134309424</v>
+        <v>0.1526698754782316</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1505762974071665</v>
+        <v>0.07066347891128899</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.611928086129069</v>
+        <v>0.2538559252801917</v>
       </c>
       <c r="H13">
-        <v>0.7486925162821123</v>
+        <v>0.2518002140585054</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4194322814059888</v>
+        <v>1.336279411288643</v>
       </c>
       <c r="L13">
-        <v>0.2054270566187597</v>
+        <v>0.219738585897133</v>
       </c>
       <c r="M13">
-        <v>0.1735343239949856</v>
+        <v>0.3368464393575223</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.705397269580857</v>
+        <v>1.013630837986724</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6335225071514117</v>
+        <v>1.578610952838034</v>
       </c>
       <c r="C14">
-        <v>0.2900081239093097</v>
+        <v>0.1531171494038546</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1506870097746216</v>
+        <v>0.07041886140645914</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6131854783497843</v>
+        <v>0.254585727836151</v>
       </c>
       <c r="H14">
-        <v>0.7499290627529547</v>
+        <v>0.2533054408479316</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4123198971239219</v>
+        <v>1.313985325325405</v>
       </c>
       <c r="L14">
-        <v>0.2047134137806239</v>
+        <v>0.2164797094188202</v>
       </c>
       <c r="M14">
-        <v>0.1718849997257763</v>
+        <v>0.3309873677172774</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.710612514812595</v>
+        <v>1.018265036711199</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6283411858872228</v>
+        <v>1.561331882292848</v>
       </c>
       <c r="C15">
-        <v>0.2901663657811397</v>
+        <v>0.1533938088833793</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1507561522753349</v>
+        <v>0.07027173145188215</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.6139637683393175</v>
+        <v>0.2550551371598928</v>
       </c>
       <c r="H15">
-        <v>0.750692581140882</v>
+        <v>0.2542401563029486</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4079615155563374</v>
+        <v>1.300333406233023</v>
       </c>
       <c r="L15">
-        <v>0.204277988820337</v>
+        <v>0.2144882185267818</v>
       </c>
       <c r="M15">
-        <v>0.1708754406688442</v>
+        <v>0.3274017432953897</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.713836796314396</v>
+        <v>1.021177558635927</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5986569604978911</v>
+        <v>1.462447244075292</v>
       </c>
       <c r="C16">
-        <v>0.2910953024543517</v>
+        <v>0.1550201932751989</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1511727505250384</v>
+        <v>0.0694693025622044</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.6185479452897624</v>
+        <v>0.2580804180373306</v>
       </c>
       <c r="H16">
-        <v>0.7551614863315308</v>
+        <v>0.2597882212220668</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3829576336134721</v>
+        <v>1.22215248993561</v>
       </c>
       <c r="L16">
-        <v>0.201808890012444</v>
+        <v>0.2031450809256938</v>
       </c>
       <c r="M16">
-        <v>0.1651009039575584</v>
+        <v>0.306901058992274</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.732770433195327</v>
+        <v>1.038977725477849</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5804542614839363</v>
+        <v>1.40189501600446</v>
       </c>
       <c r="C17">
-        <v>0.2916849450180052</v>
+        <v>0.1560541686081436</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1514465146800923</v>
+        <v>0.06901256630610675</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.6214708777298483</v>
+        <v>0.2602272100693028</v>
       </c>
       <c r="H17">
-        <v>0.757986464653257</v>
+        <v>0.2633591384839207</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3675942879428931</v>
+        <v>1.174231359352717</v>
       </c>
       <c r="L17">
-        <v>0.2003175736286096</v>
+        <v>0.1962459123013787</v>
       </c>
       <c r="M17">
-        <v>0.1615682076187142</v>
+        <v>0.2943640489984958</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.744792951764566</v>
+        <v>1.050862591835354</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5699875949793238</v>
+        <v>1.367103673871071</v>
       </c>
       <c r="C18">
-        <v>0.2920313711838318</v>
+        <v>0.1566620822541935</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1516106700248194</v>
+        <v>0.06876260880259011</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6231927253789138</v>
+        <v>0.2615656672376971</v>
       </c>
       <c r="H18">
-        <v>0.7596419956566436</v>
+        <v>0.2654731446719865</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3587489741550201</v>
+        <v>1.146680625754186</v>
       </c>
       <c r="L18">
-        <v>0.1994684317204616</v>
+        <v>0.1922986402147586</v>
       </c>
       <c r="M18">
-        <v>0.1595399428330495</v>
+        <v>0.2871666346075372</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.751857655966077</v>
+        <v>1.058043352870271</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5664443079108992</v>
+        <v>1.355329871510378</v>
       </c>
       <c r="C19">
-        <v>0.2921499166947612</v>
+        <v>0.156870167019612</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1516674004706076</v>
+        <v>0.06868013753237889</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.6237826935837276</v>
+        <v>0.2620363541416708</v>
       </c>
       <c r="H19">
-        <v>0.7602078000343226</v>
+        <v>0.2661991051928823</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3557526232853547</v>
+        <v>1.13735428288183</v>
       </c>
       <c r="L19">
-        <v>0.1991824104727442</v>
+        <v>0.1909656749115385</v>
       </c>
       <c r="M19">
-        <v>0.1588538385574978</v>
+        <v>0.2847319496199319</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.754275346577117</v>
+        <v>1.06053296738007</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5823916603497423</v>
+        <v>1.408337021092791</v>
       </c>
       <c r="C20">
-        <v>0.291621423489012</v>
+        <v>0.1559427315148554</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1514166794295999</v>
+        <v>0.06905986067444303</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6211555184939499</v>
+        <v>0.2599878785838428</v>
       </c>
       <c r="H20">
-        <v>0.7576825660524449</v>
+        <v>0.2629727562446149</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3692306496312767</v>
+        <v>1.179331322211851</v>
       </c>
       <c r="L20">
-        <v>0.2004754348544679</v>
+        <v>0.196978152414033</v>
       </c>
       <c r="M20">
-        <v>0.16194389265479</v>
+        <v>0.295697212014467</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.743497643258763</v>
+        <v>1.049561515357794</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6360072212817158</v>
+        <v>1.586899262801751</v>
       </c>
       <c r="C21">
-        <v>0.289932633363442</v>
+        <v>0.1529852126482467</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1506542141578997</v>
+        <v>0.07049014588678304</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.6128144634158303</v>
+        <v>0.2543666833640401</v>
       </c>
       <c r="H21">
-        <v>0.7495645883277575</v>
+        <v>0.2528606600870233</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4144093615114741</v>
+        <v>1.320532820573987</v>
       </c>
       <c r="L21">
-        <v>0.2049226734547176</v>
+        <v>0.217435942880158</v>
       </c>
       <c r="M21">
-        <v>0.172369300703501</v>
+        <v>0.3327076410081986</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.709074461832728</v>
+        <v>1.01688839355009</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6710699529677413</v>
+        <v>1.704010301506088</v>
       </c>
       <c r="C22">
-        <v>0.2888934378908701</v>
+        <v>0.1511724318515277</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1502153549968099</v>
+        <v>0.07154515702693587</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.6077256182077377</v>
+        <v>0.2516860035728641</v>
       </c>
       <c r="H22">
-        <v>0.744531979975541</v>
+        <v>0.2468173635783231</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4438543995978819</v>
+        <v>1.412981511943116</v>
       </c>
       <c r="L22">
-        <v>0.2079054431591771</v>
+        <v>0.2310126054382238</v>
       </c>
       <c r="M22">
-        <v>0.1792143557271828</v>
+        <v>0.3570378372520722</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.687910319433456</v>
+        <v>0.9988175037806428</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.652354566415454</v>
+        <v>1.641464181925329</v>
       </c>
       <c r="C23">
-        <v>0.2894421861079053</v>
+        <v>0.1521288256022331</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1504441493519586</v>
+        <v>0.07097073858991365</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.6104084365150513</v>
+        <v>0.2530223590898899</v>
       </c>
       <c r="H23">
-        <v>0.7471930128518594</v>
+        <v>0.2499895172733488</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4281467208511742</v>
+        <v>1.363621924117524</v>
       </c>
       <c r="L23">
-        <v>0.2063065334171057</v>
+        <v>0.2237466139475544</v>
       </c>
       <c r="M23">
-        <v>0.1755581939932895</v>
+        <v>0.3440383191187379</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.699083985366869</v>
+        <v>1.008151273467007</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5815157675359615</v>
+        <v>1.405424526270878</v>
       </c>
       <c r="C24">
-        <v>0.2916501184173512</v>
+        <v>0.1559930703051577</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.151430146873734</v>
+        <v>0.06903843963590894</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6212979634065121</v>
+        <v>0.2600957564293793</v>
       </c>
       <c r="H24">
-        <v>0.7578198607568538</v>
+        <v>0.2631472498632306</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3684908900929145</v>
+        <v>1.177025630351665</v>
       </c>
       <c r="L24">
-        <v>0.2004040401351688</v>
+        <v>0.196647047219912</v>
       </c>
       <c r="M24">
-        <v>0.1617740369369329</v>
+        <v>0.2950944572251615</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.744082776287811</v>
+        <v>1.050148650410307</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5052238972379257</v>
+        <v>1.152177746417266</v>
       </c>
       <c r="C25">
-        <v>0.2943102182448456</v>
+        <v>0.1606645266082012</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1527496954137533</v>
+        <v>0.06743788654796568</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6345980877416295</v>
+        <v>0.271653452602969</v>
       </c>
       <c r="H25">
-        <v>0.7704556834763565</v>
+        <v>0.2796225417786502</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.303811160104317</v>
+        <v>0.9761902622899754</v>
       </c>
       <c r="L25">
-        <v>0.194367248016512</v>
+        <v>0.168206375879663</v>
       </c>
       <c r="M25">
-        <v>0.1470456520947252</v>
+        <v>0.24280742556601</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.798343128562706</v>
+        <v>1.108526986354988</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9664318937494158</v>
+        <v>1.038802067006827</v>
       </c>
       <c r="C2">
-        <v>0.1645244705688143</v>
+        <v>0.1409201557646718</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06664137067468978</v>
+        <v>0.1630454848791558</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.008226580300388</v>
       </c>
       <c r="G2">
-        <v>0.2831967883152302</v>
+        <v>0.2961986543049164</v>
       </c>
       <c r="H2">
-        <v>0.2935687049665887</v>
+        <v>0.002697164452232892</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002281824488258977</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2888372494589433</v>
       </c>
       <c r="K2">
-        <v>0.8283854173133989</v>
+        <v>0.3425251791542081</v>
       </c>
       <c r="L2">
-        <v>0.1478427451275053</v>
+        <v>0.07129268666338362</v>
       </c>
       <c r="M2">
-        <v>0.2046318252135748</v>
+        <v>0.7887256940559269</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.4564687686637967</v>
       </c>
       <c r="O2">
-        <v>1.161717279520587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8574347090765961</v>
+      </c>
+      <c r="Q2">
+        <v>1.180097807291816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8407938800377792</v>
+        <v>0.9057068091174472</v>
       </c>
       <c r="C3">
-        <v>0.1673968017712752</v>
+        <v>0.1382290019283161</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06632392522698716</v>
+        <v>0.1501518474275123</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>0.952783353206442</v>
       </c>
       <c r="G3">
-        <v>0.2927520136626356</v>
+        <v>0.2912757053713904</v>
       </c>
       <c r="H3">
-        <v>0.3040841446538352</v>
+        <v>0.004064993740290845</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.003207721356508486</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2901460891380836</v>
       </c>
       <c r="K3">
-        <v>0.7281212193267095</v>
+        <v>0.3433921955208987</v>
       </c>
       <c r="L3">
-        <v>0.1343546949022283</v>
+        <v>0.06435566406327808</v>
       </c>
       <c r="M3">
-        <v>0.1789099428653032</v>
+        <v>0.689573135850722</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.4062843421634597</v>
       </c>
       <c r="O3">
-        <v>1.203648606226011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8788198764004527</v>
+      </c>
+      <c r="Q3">
+        <v>1.172164264550901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7637106987730533</v>
+        <v>0.8236012105063537</v>
       </c>
       <c r="C4">
-        <v>0.1692850791646876</v>
+        <v>0.1365531134133509</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06623373235793295</v>
+        <v>0.1422245195312009</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.9192667291537333</v>
       </c>
       <c r="G4">
-        <v>0.2994235111294508</v>
+        <v>0.2885280878902847</v>
       </c>
       <c r="H4">
-        <v>0.3110441292067634</v>
+        <v>0.005084211466424293</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003928660084535629</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2911483313049814</v>
       </c>
       <c r="K4">
-        <v>0.6664704778183079</v>
+        <v>0.3441178098875852</v>
       </c>
       <c r="L4">
-        <v>0.1262126167865034</v>
+        <v>0.06009378611379645</v>
       </c>
       <c r="M4">
-        <v>0.1631751005179218</v>
+        <v>0.6285391143380252</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.3755754803003128</v>
       </c>
       <c r="O4">
-        <v>1.232146273534951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8925276744038442</v>
+      </c>
+      <c r="Q4">
+        <v>1.168285817478804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7323055266243443</v>
+        <v>0.7894180780319289</v>
       </c>
       <c r="C5">
-        <v>0.1700856495180574</v>
+        <v>0.1358928620921347</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06622260906180877</v>
+        <v>0.1389547149722468</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>0.9052889462928206</v>
       </c>
       <c r="G5">
-        <v>0.3023374010904156</v>
+        <v>0.2872375165401806</v>
       </c>
       <c r="H5">
-        <v>0.3140039181337393</v>
+        <v>0.005545403039096175</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.004335568483695873</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2914816591168403</v>
       </c>
       <c r="K5">
-        <v>0.6413198686757937</v>
+        <v>0.3442213190498791</v>
       </c>
       <c r="L5">
-        <v>0.1229277719017006</v>
+        <v>0.05840761636705238</v>
       </c>
       <c r="M5">
-        <v>0.1567756649535959</v>
+        <v>0.6036211375407703</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.363302518866206</v>
       </c>
       <c r="O5">
-        <v>1.244429736398239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8983260393224128</v>
+      </c>
+      <c r="Q5">
+        <v>1.166183916079873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7270909103410759</v>
+        <v>0.7829684390600278</v>
       </c>
       <c r="C6">
-        <v>0.170220453407353</v>
+        <v>0.1358194311412557</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06622229008435987</v>
+        <v>0.1383671829169444</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>0.9024297027816601</v>
       </c>
       <c r="G6">
-        <v>0.3028328374799258</v>
+        <v>0.2867368944823525</v>
       </c>
       <c r="H6">
-        <v>0.3145027631371242</v>
+        <v>0.005627459508021015</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004505706768227036</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2913883806621271</v>
       </c>
       <c r="K6">
-        <v>0.6371418247200324</v>
+        <v>0.3439485968995371</v>
       </c>
       <c r="L6">
-        <v>0.1223842695273873</v>
+        <v>0.05819123039661633</v>
       </c>
       <c r="M6">
-        <v>0.1557137485906743</v>
+        <v>0.599474715127883</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.3615325192380396</v>
       </c>
       <c r="O6">
-        <v>1.246509276480829</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8993847821909036</v>
+      </c>
+      <c r="Q6">
+        <v>1.164916248077745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7632871401501689</v>
+        <v>0.8210371500614997</v>
       </c>
       <c r="C7">
-        <v>0.1692957504252739</v>
+        <v>0.1366453832631436</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06623347947366831</v>
+        <v>0.1420592512028129</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.9175874532364077</v>
       </c>
       <c r="G7">
-        <v>0.299462027692396</v>
+        <v>0.2877182518294887</v>
       </c>
       <c r="H7">
-        <v>0.3110835497025732</v>
+        <v>0.005097582115391075</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.004192590011788511</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2907397369284581</v>
       </c>
       <c r="K7">
-        <v>0.6661314057063663</v>
+        <v>0.3433207254039274</v>
       </c>
       <c r="L7">
-        <v>0.1261681846979599</v>
+        <v>0.06024565570905693</v>
       </c>
       <c r="M7">
-        <v>0.1630887469679969</v>
+        <v>0.6281858499591806</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.3761392632493852</v>
       </c>
       <c r="O7">
-        <v>1.232309245815927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8928551336399728</v>
+      </c>
+      <c r="Q7">
+        <v>1.165711682855189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9230946522294516</v>
+        <v>0.9901800500452396</v>
       </c>
       <c r="C8">
-        <v>0.165488816608601</v>
+        <v>0.1401387305363713</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0665097500180778</v>
+        <v>0.1584414918199961</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>0.98702662770215</v>
       </c>
       <c r="G8">
-        <v>0.2863200778868205</v>
+        <v>0.2933981299831814</v>
       </c>
       <c r="H8">
-        <v>0.2970880553014226</v>
+        <v>0.003137715423794152</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002880426607033471</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2887050253422245</v>
       </c>
       <c r="K8">
-        <v>0.7938293046118758</v>
+        <v>0.3417341416608863</v>
       </c>
       <c r="L8">
-        <v>0.1431618505535042</v>
+        <v>0.06913485199599734</v>
       </c>
       <c r="M8">
-        <v>0.1957494927014984</v>
+        <v>0.7545442109849034</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.4401133733966986</v>
       </c>
       <c r="O8">
-        <v>1.175590889753209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.865065984208826</v>
+      </c>
+      <c r="Q8">
+        <v>1.173802284520974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.23734401911932</v>
+        <v>1.322672891500616</v>
       </c>
       <c r="C9">
-        <v>0.1590248335279369</v>
+        <v>0.1466375596862228</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0679155020302602</v>
+        <v>0.190720832744173</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.130304627320328</v>
       </c>
       <c r="G9">
-        <v>0.2672668124038822</v>
+        <v>0.3082543512003824</v>
       </c>
       <c r="H9">
-        <v>0.2737812932167074</v>
+        <v>0.0007845377395425679</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.001184912943966054</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2870720758578713</v>
       </c>
       <c r="K9">
-        <v>1.043811687727953</v>
+        <v>0.3416273859020791</v>
       </c>
       <c r="L9">
-        <v>0.1776904196958142</v>
+        <v>0.08626337471847023</v>
       </c>
       <c r="M9">
-        <v>0.2603630111843529</v>
+        <v>1.001266498885485</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.5652134946907097</v>
       </c>
       <c r="O9">
-        <v>1.087209663998252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8147696264135647</v>
+      </c>
+      <c r="Q9">
+        <v>1.202437452309383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.469361922057487</v>
+        <v>1.556448511014622</v>
       </c>
       <c r="C10">
-        <v>0.1549040065493159</v>
+        <v>0.1518187679759322</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06952316870087216</v>
+        <v>0.2086698189276959</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>1.222223265205784</v>
       </c>
       <c r="G10">
-        <v>0.2578497339007271</v>
+        <v>0.3170717819018805</v>
       </c>
       <c r="H10">
-        <v>0.2593889997529502</v>
+        <v>0.0002860059344689247</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009390614675020004</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2850822005167473</v>
       </c>
       <c r="K10">
-        <v>1.227622467292576</v>
+        <v>0.3393351650451493</v>
       </c>
       <c r="L10">
-        <v>0.2039352278422371</v>
+        <v>0.1010687236449357</v>
       </c>
       <c r="M10">
-        <v>0.3083335237733564</v>
+        <v>1.180823717848767</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.6408192647205482</v>
       </c>
       <c r="O10">
-        <v>1.037669014073074</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7828363910036096</v>
+      </c>
+      <c r="Q10">
+        <v>1.21734123207716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.575306115935319</v>
+        <v>1.591462587615752</v>
       </c>
       <c r="C11">
-        <v>0.1531698957769123</v>
+        <v>0.1590235906625708</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0703905658231001</v>
+        <v>0.1703369428650063</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>1.128298400579339</v>
       </c>
       <c r="G11">
-        <v>0.2546741721279062</v>
+        <v>0.2921376167416838</v>
       </c>
       <c r="H11">
-        <v>0.2534834353882687</v>
+        <v>0.01885897890567989</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001439562729005139</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.269617444792928</v>
       </c>
       <c r="K11">
-        <v>1.311374437366169</v>
+        <v>0.3131610828263938</v>
       </c>
       <c r="L11">
-        <v>0.2160986005589223</v>
+        <v>0.1284226488432694</v>
       </c>
       <c r="M11">
-        <v>0.3303014972138172</v>
+        <v>1.251603409583481</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.5320529983345637</v>
       </c>
       <c r="O11">
-        <v>1.018817634156548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.787606097854443</v>
+      </c>
+      <c r="Q11">
+        <v>1.132234584037633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.615494207090819</v>
+        <v>1.574136036370192</v>
       </c>
       <c r="C12">
-        <v>0.1525338028811092</v>
+        <v>0.1651271018746385</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.07073957387424912</v>
+        <v>0.1385686300451567</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.034388469071189</v>
       </c>
       <c r="G12">
-        <v>0.2536411519982238</v>
+        <v>0.2708599438694606</v>
       </c>
       <c r="H12">
-        <v>0.2513437697379715</v>
+        <v>0.05757263195467033</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001437080439239402</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2577017812521234</v>
       </c>
       <c r="K12">
-        <v>1.343117134884665</v>
+        <v>0.2935355449245662</v>
       </c>
       <c r="L12">
-        <v>0.2207397514041816</v>
+        <v>0.1511146619386352</v>
       </c>
       <c r="M12">
-        <v>0.3386443403957173</v>
+        <v>1.27321913863446</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.4326495528772938</v>
       </c>
       <c r="O12">
-        <v>1.012239573498903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.8007885373002424</v>
+      </c>
+      <c r="Q12">
+        <v>1.06221574968977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.60683569804678</v>
+        <v>1.512325639048129</v>
       </c>
       <c r="C13">
-        <v>0.1526698754782316</v>
+        <v>0.1707945852542352</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07066347891128899</v>
+        <v>0.1099346041381679</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.9329241922188203</v>
       </c>
       <c r="G13">
-        <v>0.2538559252801917</v>
+        <v>0.2498614686391889</v>
       </c>
       <c r="H13">
-        <v>0.2518002140585054</v>
+        <v>0.1134043105997904</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00141095456737439</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2471292767328421</v>
       </c>
       <c r="K13">
-        <v>1.336279411288643</v>
+        <v>0.276514214397185</v>
       </c>
       <c r="L13">
-        <v>0.219738585897133</v>
+        <v>0.1715513339417143</v>
       </c>
       <c r="M13">
-        <v>0.3368464393575223</v>
+        <v>1.258026236969044</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3363546957617416</v>
       </c>
       <c r="O13">
-        <v>1.013630837986724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.8210055946129629</v>
+      </c>
+      <c r="Q13">
+        <v>0.9955289814252239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.578610952838034</v>
+        <v>1.448558749015234</v>
       </c>
       <c r="C14">
-        <v>0.1531171494038546</v>
+        <v>0.1747657684852228</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07041886140645914</v>
+        <v>0.09200604614373731</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.8590943489680214</v>
       </c>
       <c r="G14">
-        <v>0.254585727836151</v>
+        <v>0.2352766399633239</v>
       </c>
       <c r="H14">
-        <v>0.2533054408479316</v>
+        <v>0.1628344830002959</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001477770667276168</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2403052773501742</v>
       </c>
       <c r="K14">
-        <v>1.313985325325405</v>
+        <v>0.2657827636135472</v>
       </c>
       <c r="L14">
-        <v>0.2164797094188202</v>
+        <v>0.1851376973919514</v>
       </c>
       <c r="M14">
-        <v>0.3309873677172774</v>
+        <v>1.230738711623815</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2723969312267798</v>
       </c>
       <c r="O14">
-        <v>1.018265036711199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.8386444886952518</v>
+      </c>
+      <c r="Q14">
+        <v>0.9502644616182323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.561331882292848</v>
+        <v>1.422952908674517</v>
       </c>
       <c r="C15">
-        <v>0.1533938088833793</v>
+        <v>0.1756029252232025</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07027173145188215</v>
+        <v>0.08777834294864206</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.8388671244746462</v>
       </c>
       <c r="G15">
-        <v>0.2550551371598928</v>
+        <v>0.231506812434894</v>
       </c>
       <c r="H15">
-        <v>0.2542401563029486</v>
+        <v>0.1753848956153519</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001613495625548467</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2387969866360393</v>
       </c>
       <c r="K15">
-        <v>1.300333406233023</v>
+        <v>0.2634183483159092</v>
       </c>
       <c r="L15">
-        <v>0.2144882185267818</v>
+        <v>0.1876399097406463</v>
       </c>
       <c r="M15">
-        <v>0.3274017432953897</v>
+        <v>1.216278838144632</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2565724449494979</v>
       </c>
       <c r="O15">
-        <v>1.021177558635927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.8442456326770866</v>
+      </c>
+      <c r="Q15">
+        <v>0.9390842148601592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.462447244075292</v>
+        <v>1.335192302997456</v>
       </c>
       <c r="C16">
-        <v>0.1550201932751989</v>
+        <v>0.1720409055685792</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0694693025622044</v>
+        <v>0.08654065361269758</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.8206628867842269</v>
       </c>
       <c r="G16">
-        <v>0.2580804180373306</v>
+        <v>0.2314906404031731</v>
       </c>
       <c r="H16">
-        <v>0.2597882212220668</v>
+        <v>0.1628784536427617</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001841747357149259</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2414394416433012</v>
       </c>
       <c r="K16">
-        <v>1.22215248993561</v>
+        <v>0.2673512121181361</v>
       </c>
       <c r="L16">
-        <v>0.2031450809256938</v>
+        <v>0.1765263108335731</v>
       </c>
       <c r="M16">
-        <v>0.306901058992274</v>
+        <v>1.142162841490716</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2465656882095288</v>
       </c>
       <c r="O16">
-        <v>1.038977725477849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.8519232710378262</v>
+      </c>
+      <c r="Q16">
+        <v>0.9444272191038294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.40189501600446</v>
+        <v>1.301556471698973</v>
       </c>
       <c r="C17">
-        <v>0.1560541686081436</v>
+        <v>0.167142418476125</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06901256630610675</v>
+        <v>0.09460904459787045</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>0.8454065165273263</v>
       </c>
       <c r="G17">
-        <v>0.2602272100693028</v>
+        <v>0.2391814044035669</v>
       </c>
       <c r="H17">
-        <v>0.2633591384839207</v>
+        <v>0.1252421960581387</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002012356272145688</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2471000046252598</v>
       </c>
       <c r="K17">
-        <v>1.174231359352717</v>
+        <v>0.2759934352770479</v>
       </c>
       <c r="L17">
-        <v>0.1962459123013787</v>
+        <v>0.1606734792832611</v>
       </c>
       <c r="M17">
-        <v>0.2943640489984958</v>
+        <v>1.099909691288559</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2716084412102191</v>
       </c>
       <c r="O17">
-        <v>1.050862591835354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8486514644716081</v>
+      </c>
+      <c r="Q17">
+        <v>0.9724944801431548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.367103673871071</v>
+        <v>1.312151485292418</v>
       </c>
       <c r="C18">
-        <v>0.1566620822541935</v>
+        <v>0.1608651734258473</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06876260880259011</v>
+        <v>0.1138521719219483</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.9125859414776869</v>
       </c>
       <c r="G18">
-        <v>0.2615656672376971</v>
+        <v>0.2551888609035942</v>
       </c>
       <c r="H18">
-        <v>0.2654731446719865</v>
+        <v>0.07243115147224444</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001819694875439204</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2563626350608672</v>
       </c>
       <c r="K18">
-        <v>1.146680625754186</v>
+        <v>0.290616396207465</v>
       </c>
       <c r="L18">
-        <v>0.1922986402147586</v>
+        <v>0.1400296167808719</v>
       </c>
       <c r="M18">
-        <v>0.2871666346075372</v>
+        <v>1.080104678415182</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3343539615313631</v>
       </c>
       <c r="O18">
-        <v>1.058043352870271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.8362972640848909</v>
+      </c>
+      <c r="Q18">
+        <v>1.025785370636271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.355329871510378</v>
+        <v>1.353619772795867</v>
       </c>
       <c r="C19">
-        <v>0.156870167019612</v>
+        <v>0.1553875330222034</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06868013753237889</v>
+        <v>0.1439338261394738</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>1.009811142127134</v>
       </c>
       <c r="G19">
-        <v>0.2620363541416708</v>
+        <v>0.2760634473796202</v>
       </c>
       <c r="H19">
-        <v>0.2661991051928823</v>
+        <v>0.02702632863471877</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001890043766507254</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.267413232256672</v>
       </c>
       <c r="K19">
-        <v>1.13735428288183</v>
+        <v>0.3086037715586833</v>
       </c>
       <c r="L19">
-        <v>0.1909656749115385</v>
+        <v>0.1193984363013243</v>
       </c>
       <c r="M19">
-        <v>0.2847319496199319</v>
+        <v>1.079642625062206</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.4320693342369282</v>
       </c>
       <c r="O19">
-        <v>1.06053296738007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.82057209079872</v>
+      </c>
+      <c r="Q19">
+        <v>1.093182218981013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.408337021092791</v>
+        <v>1.488139578634389</v>
       </c>
       <c r="C20">
-        <v>0.1559427315148554</v>
+        <v>0.1508834128677847</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06905986067444303</v>
+        <v>0.2033473930238898</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>1.192605500378662</v>
       </c>
       <c r="G20">
-        <v>0.2599878785838428</v>
+        <v>0.3120787517462773</v>
       </c>
       <c r="H20">
-        <v>0.2629727562446149</v>
+        <v>0.000336630148136674</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001741016683499019</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2842129512808285</v>
       </c>
       <c r="K20">
-        <v>1.179331322211851</v>
+        <v>0.3373286339557531</v>
       </c>
       <c r="L20">
-        <v>0.196978152414033</v>
+        <v>0.09783042106335671</v>
       </c>
       <c r="M20">
-        <v>0.295697212014467</v>
+        <v>1.133590672509115</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.6224969667285762</v>
       </c>
       <c r="O20">
-        <v>1.049561515357794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7922222457196639</v>
+      </c>
+      <c r="Q20">
+        <v>1.204837086991844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.586899262801751</v>
+        <v>1.680279359552486</v>
       </c>
       <c r="C21">
-        <v>0.1529852126482467</v>
+        <v>0.1541576767610273</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07049014588678304</v>
+        <v>0.2260182434291451</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>1.289524469903881</v>
       </c>
       <c r="G21">
-        <v>0.2543666833640401</v>
+        <v>0.3250279735364003</v>
       </c>
       <c r="H21">
-        <v>0.2528606600870233</v>
+        <v>2.781760135572853E-07</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00166832582877241</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2858842040138256</v>
       </c>
       <c r="K21">
-        <v>1.320532820573987</v>
+        <v>0.3409019057082503</v>
       </c>
       <c r="L21">
-        <v>0.217435942880158</v>
+        <v>0.1058979904349187</v>
       </c>
       <c r="M21">
-        <v>0.3327076410081986</v>
+        <v>1.273168723486776</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7073277729146241</v>
       </c>
       <c r="O21">
-        <v>1.01688839355009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7659119095191329</v>
+      </c>
+      <c r="Q21">
+        <v>1.236075818171329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.704010301506088</v>
+        <v>1.804484995351942</v>
       </c>
       <c r="C22">
-        <v>0.1511724318515277</v>
+        <v>0.1563429744282949</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07154515702693587</v>
+        <v>0.2381017621135371</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>1.347498111497572</v>
       </c>
       <c r="G22">
-        <v>0.2516860035728641</v>
+        <v>0.3331713395429858</v>
       </c>
       <c r="H22">
-        <v>0.2468173635783231</v>
+        <v>9.524323135501334E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001493440133710777</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2868671790670803</v>
       </c>
       <c r="K22">
-        <v>1.412981511943116</v>
+        <v>0.3429961239928545</v>
       </c>
       <c r="L22">
-        <v>0.2310126054382238</v>
+        <v>0.112016316691502</v>
       </c>
       <c r="M22">
-        <v>0.3570378372520722</v>
+        <v>1.363778999788565</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7531122696833847</v>
       </c>
       <c r="O22">
-        <v>0.9988175037806428</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.7497187269147005</v>
+      </c>
+      <c r="Q22">
+        <v>1.255578822844782</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.641464181925329</v>
+        <v>1.740782137571784</v>
       </c>
       <c r="C23">
-        <v>0.1521288256022331</v>
+        <v>0.1550218233694451</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07097073858991365</v>
+        <v>0.2317941135909862</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>1.318240505267369</v>
       </c>
       <c r="G23">
-        <v>0.2530223590898899</v>
+        <v>0.3297093923683647</v>
       </c>
       <c r="H23">
-        <v>0.2499895172733488</v>
+        <v>2.399710846856529E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001265997650408579</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2867919317822256</v>
       </c>
       <c r="K23">
-        <v>1.363621924117524</v>
+        <v>0.342770074389307</v>
       </c>
       <c r="L23">
-        <v>0.2237466139475544</v>
+        <v>0.1085324469018758</v>
       </c>
       <c r="M23">
-        <v>0.3440383191187379</v>
+        <v>1.315445402814305</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7277741085248692</v>
       </c>
       <c r="O23">
-        <v>1.008151273467007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7578409580222925</v>
+      </c>
+      <c r="Q23">
+        <v>1.247986323739255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.405424526270878</v>
+        <v>1.494988614172115</v>
       </c>
       <c r="C24">
-        <v>0.1559930703051577</v>
+        <v>0.1502691786464396</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06903843963590894</v>
+        <v>0.2077047741206357</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>1.206143257169728</v>
       </c>
       <c r="G24">
-        <v>0.2600957564293793</v>
+        <v>0.3158884341601293</v>
       </c>
       <c r="H24">
-        <v>0.2631472498632306</v>
+        <v>0.000196838841862057</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001241394302470944</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2862245174714602</v>
       </c>
       <c r="K24">
-        <v>1.177025630351665</v>
+        <v>0.3409480545049774</v>
       </c>
       <c r="L24">
-        <v>0.196647047219912</v>
+        <v>0.09572577979204766</v>
       </c>
       <c r="M24">
-        <v>0.2950944572251615</v>
+        <v>1.132315078414251</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.633594746304226</v>
       </c>
       <c r="O24">
-        <v>1.050148650410307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7906148472011303</v>
+      </c>
+      <c r="Q24">
+        <v>1.217124736386126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.152177746417266</v>
+        <v>1.229157425485056</v>
       </c>
       <c r="C25">
-        <v>0.1606645266082012</v>
+        <v>0.1451050206884723</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06743788654796568</v>
+        <v>0.1817730889831957</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.088338632851489</v>
       </c>
       <c r="G25">
-        <v>0.271653452602969</v>
+        <v>0.3025517668639566</v>
       </c>
       <c r="H25">
-        <v>0.2796225417786502</v>
+        <v>0.001255330487984763</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001939289368213082</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2866007098924896</v>
       </c>
       <c r="K25">
-        <v>0.9761902622899754</v>
+        <v>0.3400597998238588</v>
       </c>
       <c r="L25">
-        <v>0.168206375879663</v>
+        <v>0.08194798290638516</v>
       </c>
       <c r="M25">
-        <v>0.24280742556601</v>
+        <v>0.9345839194354539</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.5325863854711486</v>
       </c>
       <c r="O25">
-        <v>1.108526986354988</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.828449917119265</v>
+      </c>
+      <c r="Q25">
+        <v>1.189213899681477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.038802067006827</v>
+        <v>1.005640188337935</v>
       </c>
       <c r="C2">
-        <v>0.1409201557646718</v>
+        <v>0.1264043382304436</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1630454848791558</v>
+        <v>0.1606770045972752</v>
       </c>
       <c r="F2">
-        <v>1.008226580300388</v>
+        <v>0.9759962181840933</v>
       </c>
       <c r="G2">
-        <v>0.2961986543049164</v>
+        <v>0.2611817411977029</v>
       </c>
       <c r="H2">
-        <v>0.002697164452232892</v>
+        <v>0.002237916264237749</v>
       </c>
       <c r="I2">
-        <v>0.002281824488258977</v>
+        <v>0.001726397840752014</v>
       </c>
       <c r="J2">
-        <v>0.2888372494589433</v>
+        <v>0.305531472686944</v>
       </c>
       <c r="K2">
-        <v>0.3425251791542081</v>
+        <v>0.3166590930519426</v>
       </c>
       <c r="L2">
-        <v>0.07129268666338362</v>
+        <v>0.1564061378008184</v>
       </c>
       <c r="M2">
-        <v>0.7887256940559269</v>
+        <v>0.08713046268098346</v>
       </c>
       <c r="N2">
-        <v>0.4564687686637967</v>
+        <v>0.07274748972707101</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7903684533122828</v>
       </c>
       <c r="P2">
-        <v>0.8574347090765961</v>
+        <v>0.474336548224997</v>
       </c>
       <c r="Q2">
-        <v>1.180097807291816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8435131951868833</v>
+      </c>
+      <c r="S2">
+        <v>1.114288766160058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9057068091174472</v>
+        <v>0.8797531570191381</v>
       </c>
       <c r="C3">
-        <v>0.1382290019283161</v>
+        <v>0.122605757349028</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1501518474275123</v>
+        <v>0.1482541024818858</v>
       </c>
       <c r="F3">
-        <v>0.952783353206442</v>
+        <v>0.9246370163906406</v>
       </c>
       <c r="G3">
-        <v>0.2912757053713904</v>
+        <v>0.2586997586942843</v>
       </c>
       <c r="H3">
-        <v>0.004064993740290845</v>
+        <v>0.003430542185033469</v>
       </c>
       <c r="I3">
-        <v>0.003207721356508486</v>
+        <v>0.002394464441481503</v>
       </c>
       <c r="J3">
-        <v>0.2901460891380836</v>
+        <v>0.3055486656063877</v>
       </c>
       <c r="K3">
-        <v>0.3433921955208987</v>
+        <v>0.318809174112193</v>
       </c>
       <c r="L3">
-        <v>0.06435566406327808</v>
+        <v>0.1608248057496979</v>
       </c>
       <c r="M3">
-        <v>0.689573135850722</v>
+        <v>0.08586497383219438</v>
       </c>
       <c r="N3">
-        <v>0.4062843421634597</v>
+        <v>0.06507785749625938</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.6914158303851536</v>
       </c>
       <c r="P3">
-        <v>0.8788198764004527</v>
+        <v>0.4219434134735991</v>
       </c>
       <c r="Q3">
-        <v>1.172164264550901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8613917293215998</v>
+      </c>
+      <c r="S3">
+        <v>1.111187352375254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8236012105063537</v>
+        <v>0.8019161998217896</v>
       </c>
       <c r="C4">
-        <v>0.1365531134133509</v>
+        <v>0.1202782976685413</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1422245195312009</v>
+        <v>0.140611027163164</v>
       </c>
       <c r="F4">
-        <v>0.9192667291537333</v>
+        <v>0.8935204975462838</v>
       </c>
       <c r="G4">
-        <v>0.2885280878902847</v>
+        <v>0.2574521286759932</v>
       </c>
       <c r="H4">
-        <v>0.005084211466424293</v>
+        <v>0.004324734832051091</v>
       </c>
       <c r="I4">
-        <v>0.003928660084535629</v>
+        <v>0.002937479079061056</v>
       </c>
       <c r="J4">
-        <v>0.2911483313049814</v>
+        <v>0.3056345666364564</v>
       </c>
       <c r="K4">
-        <v>0.3441178098875852</v>
+        <v>0.3202612878685045</v>
       </c>
       <c r="L4">
-        <v>0.06009378611379645</v>
+        <v>0.1636451424568861</v>
       </c>
       <c r="M4">
-        <v>0.6285391143380252</v>
+        <v>0.0855838761432608</v>
       </c>
       <c r="N4">
-        <v>0.3755754803003128</v>
+        <v>0.06038229749751522</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.6304857920371205</v>
       </c>
       <c r="P4">
-        <v>0.8925276744038442</v>
+        <v>0.3899331710428271</v>
       </c>
       <c r="Q4">
-        <v>1.168285817478804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8729773688898241</v>
+      </c>
+      <c r="S4">
+        <v>1.110057587544119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7894180780319289</v>
+        <v>0.769434586525449</v>
       </c>
       <c r="C5">
-        <v>0.1358928620921347</v>
+        <v>0.1193775683855272</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1389547149722468</v>
+        <v>0.1374558637896541</v>
       </c>
       <c r="F5">
-        <v>0.9052889462928206</v>
+        <v>0.8804948953986624</v>
       </c>
       <c r="G5">
-        <v>0.2872375165401806</v>
+        <v>0.2567813965100783</v>
       </c>
       <c r="H5">
-        <v>0.005545403039096175</v>
+        <v>0.004730543803972531</v>
       </c>
       <c r="I5">
-        <v>0.004335568483695873</v>
+        <v>0.003279461069420009</v>
       </c>
       <c r="J5">
-        <v>0.2914816591168403</v>
+        <v>0.3055596123358058</v>
       </c>
       <c r="K5">
-        <v>0.3442213190498791</v>
+        <v>0.3206544984713631</v>
       </c>
       <c r="L5">
-        <v>0.05840761636705238</v>
+        <v>0.1646991340878792</v>
       </c>
       <c r="M5">
-        <v>0.6036211375407703</v>
+        <v>0.08554156310380812</v>
       </c>
       <c r="N5">
-        <v>0.363302518866206</v>
+        <v>0.05852595948630324</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6056062805413092</v>
       </c>
       <c r="P5">
-        <v>0.8983260393224128</v>
+        <v>0.3771490081058317</v>
       </c>
       <c r="Q5">
-        <v>1.166183916079873</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8779368703400507</v>
+      </c>
+      <c r="S5">
+        <v>1.109036019511478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7829684390600278</v>
+        <v>0.7632662481457544</v>
       </c>
       <c r="C6">
-        <v>0.1358194311412557</v>
+        <v>0.1192870040770657</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1383671829169444</v>
+        <v>0.1368872354886541</v>
       </c>
       <c r="F6">
-        <v>0.9024297027816601</v>
+        <v>0.8777929529668782</v>
       </c>
       <c r="G6">
-        <v>0.2867368944823525</v>
+        <v>0.2563943515413811</v>
       </c>
       <c r="H6">
-        <v>0.005627459508021015</v>
+        <v>0.004802896115833122</v>
       </c>
       <c r="I6">
-        <v>0.004505706768227036</v>
+        <v>0.003455114231789125</v>
       </c>
       <c r="J6">
-        <v>0.2913883806621271</v>
+        <v>0.3053911720758009</v>
       </c>
       <c r="K6">
-        <v>0.3439485968995371</v>
+        <v>0.3204399309034827</v>
       </c>
       <c r="L6">
-        <v>0.05819123039661633</v>
+        <v>0.1647270151702962</v>
       </c>
       <c r="M6">
-        <v>0.599474715127883</v>
+        <v>0.08547781049402747</v>
       </c>
       <c r="N6">
-        <v>0.3615325192380396</v>
+        <v>0.05828470764642901</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.6014663311783863</v>
       </c>
       <c r="P6">
-        <v>0.8993847821909036</v>
+        <v>0.3753014890673256</v>
       </c>
       <c r="Q6">
-        <v>1.164916248077745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8788791452461524</v>
+      </c>
+      <c r="S6">
+        <v>1.107961978158741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8210371500614997</v>
+        <v>0.7990247249155118</v>
       </c>
       <c r="C7">
-        <v>0.1366453832631436</v>
+        <v>0.1203565109590627</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1420592512028129</v>
+        <v>0.140564144007584</v>
       </c>
       <c r="F7">
-        <v>0.9175874532364077</v>
+        <v>0.8912306003065567</v>
       </c>
       <c r="G7">
-        <v>0.2877182518294887</v>
+        <v>0.2586610335342172</v>
       </c>
       <c r="H7">
-        <v>0.005097582115391075</v>
+        <v>0.004339790466928894</v>
       </c>
       <c r="I7">
-        <v>0.004192590011788511</v>
+        <v>0.003246701591407053</v>
       </c>
       <c r="J7">
-        <v>0.2907397369284581</v>
+        <v>0.3022923114117191</v>
       </c>
       <c r="K7">
-        <v>0.3433207254039274</v>
+        <v>0.3192171701636113</v>
       </c>
       <c r="L7">
-        <v>0.06024565570905693</v>
+        <v>0.1631206354424108</v>
       </c>
       <c r="M7">
-        <v>0.6281858499591806</v>
+        <v>0.08532815531880544</v>
       </c>
       <c r="N7">
-        <v>0.3761392632493852</v>
+        <v>0.06061948537260164</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.6294706555890315</v>
       </c>
       <c r="P7">
-        <v>0.8928551336399728</v>
+        <v>0.3906366834957851</v>
       </c>
       <c r="Q7">
-        <v>1.165711682855189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8735173567332772</v>
+      </c>
+      <c r="S7">
+        <v>1.105930750604273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9901800500452396</v>
+        <v>0.9583593819850194</v>
       </c>
       <c r="C8">
-        <v>0.1401387305363713</v>
+        <v>0.1250769930542752</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1584414918199961</v>
+        <v>0.1566294194982305</v>
       </c>
       <c r="F8">
-        <v>0.98702662770215</v>
+        <v>0.9541592914465369</v>
       </c>
       <c r="G8">
-        <v>0.2933981299831814</v>
+        <v>0.265902616079039</v>
       </c>
       <c r="H8">
-        <v>0.003137715423794152</v>
+        <v>0.002628414720718397</v>
       </c>
       <c r="I8">
-        <v>0.002880426607033471</v>
+        <v>0.002301934240971804</v>
       </c>
       <c r="J8">
-        <v>0.2887050253422245</v>
+        <v>0.2955576673158546</v>
       </c>
       <c r="K8">
-        <v>0.3417341416608863</v>
+        <v>0.3154513033019875</v>
       </c>
       <c r="L8">
-        <v>0.06913485199599734</v>
+        <v>0.1570135559829389</v>
       </c>
       <c r="M8">
-        <v>0.7545442109849034</v>
+        <v>0.08603222556322976</v>
       </c>
       <c r="N8">
-        <v>0.4401133733966986</v>
+        <v>0.07061381373920028</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.7540372282634138</v>
       </c>
       <c r="P8">
-        <v>0.865065984208826</v>
+        <v>0.4576655966612861</v>
       </c>
       <c r="Q8">
-        <v>1.173802284520974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8506339518238839</v>
+      </c>
+      <c r="S8">
+        <v>1.104461737461122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.322672891500616</v>
+        <v>1.271600791116867</v>
       </c>
       <c r="C9">
-        <v>0.1466375596862228</v>
+        <v>0.1343519211217234</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.190720832744173</v>
+        <v>0.1878199338722339</v>
       </c>
       <c r="F9">
-        <v>1.130304627320328</v>
+        <v>1.086052008962156</v>
       </c>
       <c r="G9">
-        <v>0.3082543512003824</v>
+        <v>0.2764834361835042</v>
       </c>
       <c r="H9">
-        <v>0.0007845377395425679</v>
+        <v>0.0006055577458967676</v>
       </c>
       <c r="I9">
-        <v>0.001184912943966054</v>
+        <v>0.001078886885995445</v>
       </c>
       <c r="J9">
-        <v>0.2870720758578713</v>
+        <v>0.2939242471894943</v>
       </c>
       <c r="K9">
-        <v>0.3416273859020791</v>
+        <v>0.3115270825436198</v>
       </c>
       <c r="L9">
-        <v>0.08626337471847023</v>
+        <v>0.1470329243432271</v>
       </c>
       <c r="M9">
-        <v>1.001266498885485</v>
+        <v>0.09201247767405007</v>
       </c>
       <c r="N9">
-        <v>0.5652134946907097</v>
+        <v>0.0897345286803386</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.9994756758921426</v>
       </c>
       <c r="P9">
-        <v>0.8147696264135647</v>
+        <v>0.5886852830071234</v>
       </c>
       <c r="Q9">
-        <v>1.202437452309383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8094790943419063</v>
+      </c>
+      <c r="S9">
+        <v>1.118310943359873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.556448511014622</v>
+        <v>1.489097398604343</v>
       </c>
       <c r="C10">
-        <v>0.1518187679759322</v>
+        <v>0.1414707596327389</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2086698189276959</v>
+        <v>0.2057234758251454</v>
       </c>
       <c r="F10">
-        <v>1.222223265205784</v>
+        <v>1.166239851663292</v>
       </c>
       <c r="G10">
-        <v>0.3170717819018805</v>
+        <v>0.2945683964577057</v>
       </c>
       <c r="H10">
-        <v>0.0002860059344689247</v>
+        <v>0.0002444245080663876</v>
       </c>
       <c r="I10">
-        <v>0.0009390614675020004</v>
+        <v>0.001085489749029556</v>
       </c>
       <c r="J10">
-        <v>0.2850822005167473</v>
+        <v>0.2764975451362162</v>
       </c>
       <c r="K10">
-        <v>0.3393351650451493</v>
+        <v>0.3050699595904653</v>
       </c>
       <c r="L10">
-        <v>0.1010687236449357</v>
+        <v>0.1387041886517846</v>
       </c>
       <c r="M10">
-        <v>1.180823717848767</v>
+        <v>0.09709578814226916</v>
       </c>
       <c r="N10">
-        <v>0.6408192647205482</v>
+        <v>0.106663401982992</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.173948812090543</v>
       </c>
       <c r="P10">
-        <v>0.7828363910036096</v>
+        <v>0.669098208116381</v>
       </c>
       <c r="Q10">
-        <v>1.21734123207716</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7861220340126849</v>
+      </c>
+      <c r="S10">
+        <v>1.113445995108151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.591462587615752</v>
+        <v>1.520251651017645</v>
       </c>
       <c r="C11">
-        <v>0.1590235906625708</v>
+        <v>0.1499920428593953</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1703369428650063</v>
+        <v>0.1689725514265064</v>
       </c>
       <c r="F11">
-        <v>1.128298400579339</v>
+        <v>1.068494457576563</v>
       </c>
       <c r="G11">
-        <v>0.2921376167416838</v>
+        <v>0.2969637237244669</v>
       </c>
       <c r="H11">
-        <v>0.01885897890567989</v>
+        <v>0.01882247817848537</v>
       </c>
       <c r="I11">
-        <v>0.001439562729005139</v>
+        <v>0.001731365041936606</v>
       </c>
       <c r="J11">
-        <v>0.269617444792928</v>
+        <v>0.2379611219661442</v>
       </c>
       <c r="K11">
-        <v>0.3131610828263938</v>
+        <v>0.2789322401856253</v>
       </c>
       <c r="L11">
-        <v>0.1284226488432694</v>
+        <v>0.1271903588532766</v>
       </c>
       <c r="M11">
-        <v>1.251603409583481</v>
+        <v>0.09002373413931863</v>
       </c>
       <c r="N11">
-        <v>0.5320529983345637</v>
+        <v>0.1367328804470915</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.235459129202241</v>
       </c>
       <c r="P11">
-        <v>0.787606097854443</v>
+        <v>0.558670311178858</v>
       </c>
       <c r="Q11">
-        <v>1.132234584037633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.8006345338013787</v>
+      </c>
+      <c r="S11">
+        <v>1.017140512535946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.574136036370192</v>
+        <v>1.504570214068451</v>
       </c>
       <c r="C12">
-        <v>0.1651271018746385</v>
+        <v>0.1565612565930579</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1385686300451567</v>
+        <v>0.1378928976691789</v>
       </c>
       <c r="F12">
-        <v>1.034388469071189</v>
+        <v>0.9763620152660337</v>
       </c>
       <c r="G12">
-        <v>0.2708599438694606</v>
+        <v>0.2882125227466261</v>
       </c>
       <c r="H12">
-        <v>0.05757263195467033</v>
+        <v>0.0575304881876022</v>
       </c>
       <c r="I12">
-        <v>0.001437080439239402</v>
+        <v>0.001731771443584051</v>
       </c>
       <c r="J12">
-        <v>0.2577017812521234</v>
+        <v>0.2213019893857826</v>
       </c>
       <c r="K12">
-        <v>0.2935355449245662</v>
+        <v>0.2612295510935425</v>
       </c>
       <c r="L12">
-        <v>0.1511146619386352</v>
+        <v>0.1205207975350326</v>
       </c>
       <c r="M12">
-        <v>1.27321913863446</v>
+        <v>0.08379962795280704</v>
       </c>
       <c r="N12">
-        <v>0.4326495528772938</v>
+        <v>0.1609924278778863</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.252755803664002</v>
       </c>
       <c r="P12">
-        <v>0.8007885373002424</v>
+        <v>0.4563180361828358</v>
       </c>
       <c r="Q12">
-        <v>1.06221574968977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.819400925282153</v>
+      </c>
+      <c r="S12">
+        <v>0.9481758507799185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.512325639048129</v>
+        <v>1.449671654085023</v>
       </c>
       <c r="C13">
-        <v>0.1707945852542352</v>
+        <v>0.1626620008969297</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1099346041381679</v>
+        <v>0.1092616530939665</v>
       </c>
       <c r="F13">
-        <v>0.9329241922188203</v>
+        <v>0.8819651322953206</v>
       </c>
       <c r="G13">
-        <v>0.2498614686391889</v>
+        <v>0.2641101575573828</v>
       </c>
       <c r="H13">
-        <v>0.1134043105997904</v>
+        <v>0.1133436701207415</v>
       </c>
       <c r="I13">
-        <v>0.00141095456737439</v>
+        <v>0.00167757298261062</v>
       </c>
       <c r="J13">
-        <v>0.2471292767328421</v>
+        <v>0.2180919131300953</v>
       </c>
       <c r="K13">
-        <v>0.276514214397185</v>
+        <v>0.2479929850292848</v>
       </c>
       <c r="L13">
-        <v>0.1715513339417143</v>
+        <v>0.116351983755969</v>
       </c>
       <c r="M13">
-        <v>1.258026236969044</v>
+        <v>0.07779877671154445</v>
       </c>
       <c r="N13">
-        <v>0.3363546957617416</v>
+        <v>0.1816583259878328</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.238728215647797</v>
       </c>
       <c r="P13">
-        <v>0.8210055946129629</v>
+        <v>0.3559452008073549</v>
       </c>
       <c r="Q13">
-        <v>0.9955289814252239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8406394511726134</v>
+      </c>
+      <c r="S13">
+        <v>0.8943852366875831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.448558749015234</v>
+        <v>1.392983252842498</v>
       </c>
       <c r="C14">
-        <v>0.1747657684852228</v>
+        <v>0.1670023568632928</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.09200604614373731</v>
+        <v>0.09115191595755334</v>
       </c>
       <c r="F14">
-        <v>0.8590943489680214</v>
+        <v>0.815010544404096</v>
       </c>
       <c r="G14">
-        <v>0.2352766399633239</v>
+        <v>0.2414473467509595</v>
       </c>
       <c r="H14">
-        <v>0.1628344830002959</v>
+        <v>0.1627524188264005</v>
       </c>
       <c r="I14">
-        <v>0.001477770667276168</v>
+        <v>0.001722586136041038</v>
       </c>
       <c r="J14">
-        <v>0.2403052773501742</v>
+        <v>0.220569163189186</v>
       </c>
       <c r="K14">
-        <v>0.2657827636135472</v>
+        <v>0.2405131299769536</v>
       </c>
       <c r="L14">
-        <v>0.1851376973919514</v>
+        <v>0.114340471999741</v>
       </c>
       <c r="M14">
-        <v>1.230738711623815</v>
+        <v>0.07375471734546224</v>
       </c>
       <c r="N14">
-        <v>0.2723969312267798</v>
+        <v>0.1946842392828287</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.214648569233646</v>
       </c>
       <c r="P14">
-        <v>0.8386444886952518</v>
+        <v>0.2888415708219441</v>
       </c>
       <c r="Q14">
-        <v>0.9502644616182323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8565755299325915</v>
+      </c>
+      <c r="S14">
+        <v>0.8625038866858432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.422952908674517</v>
+        <v>1.370096553808338</v>
       </c>
       <c r="C15">
-        <v>0.1756029252232025</v>
+        <v>0.168006060505455</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08777834294864206</v>
+        <v>0.08682143894480276</v>
       </c>
       <c r="F15">
-        <v>0.8388671244746462</v>
+        <v>0.7973157720452235</v>
       </c>
       <c r="G15">
-        <v>0.231506812434894</v>
+        <v>0.2333578890740355</v>
       </c>
       <c r="H15">
-        <v>0.1753848956153519</v>
+        <v>0.1752917981396536</v>
       </c>
       <c r="I15">
-        <v>0.001613495625548467</v>
+        <v>0.001866459272912735</v>
       </c>
       <c r="J15">
-        <v>0.2387969866360393</v>
+        <v>0.2232708475215155</v>
       </c>
       <c r="K15">
-        <v>0.2634183483159092</v>
+        <v>0.2392282552379914</v>
       </c>
       <c r="L15">
-        <v>0.1876399097406463</v>
+        <v>0.114160051502898</v>
       </c>
       <c r="M15">
-        <v>1.216278838144632</v>
+        <v>0.07273671747815591</v>
       </c>
       <c r="N15">
-        <v>0.2565724449494979</v>
+        <v>0.1967530571865908</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.20198976660879</v>
       </c>
       <c r="P15">
-        <v>0.8442456326770866</v>
+        <v>0.2720958989389999</v>
       </c>
       <c r="Q15">
-        <v>0.9390842148601592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8607724298554729</v>
+      </c>
+      <c r="S15">
+        <v>0.8564956057817739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.335192302997456</v>
+        <v>1.291001727930706</v>
       </c>
       <c r="C16">
-        <v>0.1720409055685792</v>
+        <v>0.1647789056507065</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08654065361269758</v>
+        <v>0.08506320289872349</v>
       </c>
       <c r="F16">
-        <v>0.8206628867842269</v>
+        <v>0.7866585500636347</v>
       </c>
       <c r="G16">
-        <v>0.2314906404031731</v>
+        <v>0.2143229622222478</v>
       </c>
       <c r="H16">
-        <v>0.1628784536427617</v>
+        <v>0.1627210029086399</v>
       </c>
       <c r="I16">
-        <v>0.001841747357149259</v>
+        <v>0.002029295965984446</v>
       </c>
       <c r="J16">
-        <v>0.2414394416433012</v>
+        <v>0.2443435602000292</v>
       </c>
       <c r="K16">
-        <v>0.2673512121181361</v>
+        <v>0.2455897701491985</v>
       </c>
       <c r="L16">
-        <v>0.1765263108335731</v>
+        <v>0.1176872839142327</v>
       </c>
       <c r="M16">
-        <v>1.142162841490716</v>
+        <v>0.07289263068353335</v>
       </c>
       <c r="N16">
-        <v>0.2465656882095288</v>
+        <v>0.1832320161427035</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.136246041743192</v>
       </c>
       <c r="P16">
-        <v>0.8519232710378262</v>
+        <v>0.2604608950309029</v>
       </c>
       <c r="Q16">
-        <v>0.9444272191038294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8601354172406772</v>
+      </c>
+      <c r="S16">
+        <v>0.8780681640769785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.301556471698973</v>
+        <v>1.259730073971525</v>
       </c>
       <c r="C17">
-        <v>0.167142418476125</v>
+        <v>0.1596303328942525</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09460904459787045</v>
+        <v>0.09280472663579786</v>
       </c>
       <c r="F17">
-        <v>0.8454065165273263</v>
+        <v>0.8131429528571346</v>
       </c>
       <c r="G17">
-        <v>0.2391814044035669</v>
+        <v>0.2138230527983396</v>
       </c>
       <c r="H17">
-        <v>0.1252421960581387</v>
+        <v>0.1250447734243352</v>
       </c>
       <c r="I17">
-        <v>0.002012356272145688</v>
+        <v>0.002162122679888689</v>
       </c>
       <c r="J17">
-        <v>0.2471000046252598</v>
+        <v>0.2586322802848002</v>
       </c>
       <c r="K17">
-        <v>0.2759934352770479</v>
+        <v>0.2543089817656288</v>
       </c>
       <c r="L17">
-        <v>0.1606734792832611</v>
+        <v>0.1216855990200774</v>
       </c>
       <c r="M17">
-        <v>1.099909691288559</v>
+        <v>0.07493420786336991</v>
       </c>
       <c r="N17">
-        <v>0.2716084412102191</v>
+        <v>0.1662141669506667</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.097544506718577</v>
       </c>
       <c r="P17">
-        <v>0.8486514644716081</v>
+        <v>0.2858632211876539</v>
       </c>
       <c r="Q17">
-        <v>0.9724944801431548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8526224943744936</v>
+      </c>
+      <c r="S17">
+        <v>0.9103825195384445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.312151485292418</v>
+        <v>1.268438852016715</v>
       </c>
       <c r="C18">
-        <v>0.1608651734258473</v>
+        <v>0.1526984608102069</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1138521719219483</v>
+        <v>0.1116510250803948</v>
       </c>
       <c r="F18">
-        <v>0.9125859414776869</v>
+        <v>0.8784185738342529</v>
       </c>
       <c r="G18">
-        <v>0.2551888609035942</v>
+        <v>0.2250323774038776</v>
       </c>
       <c r="H18">
-        <v>0.07243115147224444</v>
+        <v>0.07222551662628973</v>
       </c>
       <c r="I18">
-        <v>0.001819694875439204</v>
+        <v>0.001910803412597417</v>
       </c>
       <c r="J18">
-        <v>0.2563626350608672</v>
+        <v>0.2711818361693119</v>
       </c>
       <c r="K18">
-        <v>0.290616396207465</v>
+        <v>0.2673738297870187</v>
       </c>
       <c r="L18">
-        <v>0.1400296167808719</v>
+        <v>0.1270804068851294</v>
       </c>
       <c r="M18">
-        <v>1.080104678415182</v>
+        <v>0.07916456508640479</v>
       </c>
       <c r="N18">
-        <v>0.3343539615313631</v>
+        <v>0.1449699892826359</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.079195796968804</v>
       </c>
       <c r="P18">
-        <v>0.8362972640848909</v>
+        <v>0.3505653631029446</v>
       </c>
       <c r="Q18">
-        <v>1.025785370636271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.8378234691769393</v>
+      </c>
+      <c r="S18">
+        <v>0.9609520117655137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.353619772795867</v>
+        <v>1.305076055572584</v>
       </c>
       <c r="C19">
-        <v>0.1553875330222034</v>
+        <v>0.1464050744422849</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1439338261394738</v>
+        <v>0.1412266026752498</v>
       </c>
       <c r="F19">
-        <v>1.009811142127134</v>
+        <v>0.9712042685405891</v>
       </c>
       <c r="G19">
-        <v>0.2760634473796202</v>
+        <v>0.2425368885038495</v>
       </c>
       <c r="H19">
-        <v>0.02702632863471877</v>
+        <v>0.02684835050487777</v>
       </c>
       <c r="I19">
-        <v>0.001890043766507254</v>
+        <v>0.002024349907262746</v>
       </c>
       <c r="J19">
-        <v>0.267413232256672</v>
+        <v>0.2823485289836825</v>
       </c>
       <c r="K19">
-        <v>0.3086037715586833</v>
+        <v>0.2827111601383123</v>
       </c>
       <c r="L19">
-        <v>0.1193984363013243</v>
+        <v>0.1330688908417841</v>
       </c>
       <c r="M19">
-        <v>1.079642625062206</v>
+        <v>0.08472578621764093</v>
       </c>
       <c r="N19">
-        <v>0.4320693342369282</v>
+        <v>0.1240188445507755</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.079068649466393</v>
       </c>
       <c r="P19">
-        <v>0.82057209079872</v>
+        <v>0.4515524438384375</v>
       </c>
       <c r="Q19">
-        <v>1.093182218981013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.8207005819577091</v>
+      </c>
+      <c r="S19">
+        <v>1.021193375808636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.488139578634389</v>
+        <v>1.426552173271062</v>
       </c>
       <c r="C20">
-        <v>0.1508834128677847</v>
+        <v>0.1406027979777384</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2033473930238898</v>
+        <v>0.1999863695137734</v>
       </c>
       <c r="F20">
-        <v>1.192605500378662</v>
+        <v>1.142066011087536</v>
       </c>
       <c r="G20">
-        <v>0.3120787517462773</v>
+        <v>0.2798138327082995</v>
       </c>
       <c r="H20">
-        <v>0.000336630148136674</v>
+        <v>0.0002637869340009757</v>
       </c>
       <c r="I20">
-        <v>0.001741016683499019</v>
+        <v>0.001986610950516443</v>
       </c>
       <c r="J20">
-        <v>0.2842129512808285</v>
+        <v>0.2890114094210148</v>
       </c>
       <c r="K20">
-        <v>0.3373286339557531</v>
+        <v>0.3053401871372508</v>
       </c>
       <c r="L20">
-        <v>0.09783042106335671</v>
+        <v>0.1403202468881322</v>
       </c>
       <c r="M20">
-        <v>1.133590672509115</v>
+        <v>0.09509299561210227</v>
       </c>
       <c r="N20">
-        <v>0.6224969667285762</v>
+        <v>0.1025958937953462</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.130539201328645</v>
       </c>
       <c r="P20">
-        <v>0.7922222457196639</v>
+        <v>0.6490743694143362</v>
       </c>
       <c r="Q20">
-        <v>1.204837086991844</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7927260352423673</v>
+      </c>
+      <c r="S20">
+        <v>1.112285412751845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.680279359552486</v>
+        <v>1.597577871018871</v>
       </c>
       <c r="C21">
-        <v>0.1541576767610273</v>
+        <v>0.1435714460089201</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2260182434291451</v>
+        <v>0.2248633881257405</v>
       </c>
       <c r="F21">
-        <v>1.289524469903881</v>
+        <v>1.216567474631105</v>
       </c>
       <c r="G21">
-        <v>0.3250279735364003</v>
+        <v>0.3411334814664926</v>
       </c>
       <c r="H21">
-        <v>2.781760135572853E-07</v>
+        <v>4.525110570474666E-06</v>
       </c>
       <c r="I21">
-        <v>0.00166832582877241</v>
+        <v>0.002036281578739363</v>
       </c>
       <c r="J21">
-        <v>0.2858842040138256</v>
+        <v>0.2374864746577074</v>
       </c>
       <c r="K21">
-        <v>0.3409019057082503</v>
+        <v>0.2998113932016722</v>
       </c>
       <c r="L21">
-        <v>0.1058979904349187</v>
+        <v>0.1340431358026901</v>
       </c>
       <c r="M21">
-        <v>1.273168723486776</v>
+        <v>0.09921380869062446</v>
       </c>
       <c r="N21">
-        <v>0.7073277729146241</v>
+        <v>0.1138418450475811</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.253011080116067</v>
       </c>
       <c r="P21">
-        <v>0.7659119095191329</v>
+        <v>0.7411546144483907</v>
       </c>
       <c r="Q21">
-        <v>1.236075818171329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7773926273108884</v>
+      </c>
+      <c r="S21">
+        <v>1.096068412050727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.804484995351942</v>
+        <v>1.707464631954878</v>
       </c>
       <c r="C22">
-        <v>0.1563429744282949</v>
+        <v>0.145537094783478</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2381017621135371</v>
+        <v>0.2387065784008442</v>
       </c>
       <c r="F22">
-        <v>1.347498111497572</v>
+        <v>1.258995185718476</v>
       </c>
       <c r="G22">
-        <v>0.3331713395429858</v>
+        <v>0.388670253590675</v>
       </c>
       <c r="H22">
-        <v>9.524323135501334E-05</v>
+        <v>0.0001136433585242624</v>
       </c>
       <c r="I22">
-        <v>0.001493440133710777</v>
+        <v>0.001833849942067367</v>
       </c>
       <c r="J22">
-        <v>0.2868671790670803</v>
+        <v>0.2109756689785947</v>
       </c>
       <c r="K22">
-        <v>0.3429961239928545</v>
+        <v>0.2956098625366863</v>
       </c>
       <c r="L22">
-        <v>0.112016316691502</v>
+        <v>0.129911489815596</v>
       </c>
       <c r="M22">
-        <v>1.363778999788565</v>
+        <v>0.1019225936614134</v>
       </c>
       <c r="N22">
-        <v>0.7531122696833847</v>
+        <v>0.1222508449812452</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.331126375825107</v>
       </c>
       <c r="P22">
-        <v>0.7497187269147005</v>
+        <v>0.7916807486217579</v>
       </c>
       <c r="Q22">
-        <v>1.255578822844782</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7691523274728098</v>
+      </c>
+      <c r="S22">
+        <v>1.082246519322567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.740782137571784</v>
+        <v>1.65238369846432</v>
       </c>
       <c r="C23">
-        <v>0.1550218233694451</v>
+        <v>0.144428284311676</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2317941135909862</v>
+        <v>0.2311135238686433</v>
       </c>
       <c r="F23">
-        <v>1.318240505267369</v>
+        <v>1.239700803580533</v>
       </c>
       <c r="G23">
-        <v>0.3297093923683647</v>
+        <v>0.35750776145548</v>
       </c>
       <c r="H23">
-        <v>2.399710846856529E-05</v>
+        <v>3.852664093684233E-05</v>
       </c>
       <c r="I23">
-        <v>0.001265997650408579</v>
+        <v>0.001563159129847946</v>
       </c>
       <c r="J23">
-        <v>0.2867919317822256</v>
+        <v>0.2284923575177764</v>
       </c>
       <c r="K23">
-        <v>0.342770074389307</v>
+        <v>0.2993547691960146</v>
       </c>
       <c r="L23">
-        <v>0.1085324469018758</v>
+        <v>0.1325919279259917</v>
       </c>
       <c r="M23">
-        <v>1.315445402814305</v>
+        <v>0.101098156510556</v>
       </c>
       <c r="N23">
-        <v>0.7277741085248692</v>
+        <v>0.1172840652704394</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.291320845167121</v>
       </c>
       <c r="P23">
-        <v>0.7578409580222925</v>
+        <v>0.7634031868223587</v>
       </c>
       <c r="Q23">
-        <v>1.247986323739255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.772113418901121</v>
+      </c>
+      <c r="S23">
+        <v>1.096368854801611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.494988614172115</v>
+        <v>1.432970395021044</v>
       </c>
       <c r="C24">
-        <v>0.1502691786464396</v>
+        <v>0.1396772752854218</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2077047741206357</v>
+        <v>0.204267599355525</v>
       </c>
       <c r="F24">
-        <v>1.206143257169728</v>
+        <v>1.155163195234366</v>
       </c>
       <c r="G24">
-        <v>0.3158884341601293</v>
+        <v>0.2829380046523795</v>
       </c>
       <c r="H24">
-        <v>0.000196838841862057</v>
+        <v>0.0001281486197859394</v>
       </c>
       <c r="I24">
-        <v>0.001241394302470944</v>
+        <v>0.001388862647345945</v>
       </c>
       <c r="J24">
-        <v>0.2862245174714602</v>
+        <v>0.2913192646016824</v>
       </c>
       <c r="K24">
-        <v>0.3409480545049774</v>
+        <v>0.3085731270782333</v>
       </c>
       <c r="L24">
-        <v>0.09572577979204766</v>
+        <v>0.1415820970343038</v>
       </c>
       <c r="M24">
-        <v>1.132315078414251</v>
+        <v>0.09625805067935289</v>
       </c>
       <c r="N24">
-        <v>0.633594746304226</v>
+        <v>0.1003788678467714</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.129397900187342</v>
       </c>
       <c r="P24">
-        <v>0.7906148472011303</v>
+        <v>0.6604988522340705</v>
       </c>
       <c r="Q24">
-        <v>1.217124736386126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7905957085847817</v>
+      </c>
+      <c r="S24">
+        <v>1.123765470802994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.229157425485056</v>
+        <v>1.183987959284451</v>
       </c>
       <c r="C25">
-        <v>0.1451050206884723</v>
+        <v>0.1323072115072428</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1817730889831957</v>
+        <v>0.1790009376538322</v>
       </c>
       <c r="F25">
-        <v>1.088338632851489</v>
+        <v>1.048181844460075</v>
       </c>
       <c r="G25">
-        <v>0.3025517668639566</v>
+        <v>0.2691066888062181</v>
       </c>
       <c r="H25">
-        <v>0.001255330487984763</v>
+        <v>0.00100134257085327</v>
       </c>
       <c r="I25">
-        <v>0.001939289368213082</v>
+        <v>0.001805624699064978</v>
       </c>
       <c r="J25">
-        <v>0.2866007098924896</v>
+        <v>0.2975187737909764</v>
       </c>
       <c r="K25">
-        <v>0.3400597998238588</v>
+        <v>0.3115309403155564</v>
       </c>
       <c r="L25">
-        <v>0.08194798290638516</v>
+        <v>0.1492586544105112</v>
       </c>
       <c r="M25">
-        <v>0.9345839194354539</v>
+        <v>0.08964524689179854</v>
       </c>
       <c r="N25">
-        <v>0.5325863854711486</v>
+        <v>0.08477093178755268</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9341311948334976</v>
       </c>
       <c r="P25">
-        <v>0.828449917119265</v>
+        <v>0.554262664889265</v>
       </c>
       <c r="Q25">
-        <v>1.189213899681477</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8205376967582829</v>
+      </c>
+      <c r="S25">
+        <v>1.111738773139678</v>
       </c>
     </row>
   </sheetData>
